--- a/6. 1조 테스트시나리오/1조 PerfectSolution 통합테스트 시나리오 - 형준.xlsx
+++ b/6. 1조 테스트시나리오/1조 PerfectSolution 통합테스트 시나리오 - 형준.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="5400"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="검수 시나리오" sheetId="1" r:id="rId1"/>
     <sheet name="수정요청" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -53755,119 +53750,29 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -53876,36 +53781,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -53929,17 +53828,125 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -53952,18 +53959,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -54236,7 +54231,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -54249,8 +54244,8 @@
   </sheetPr>
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K10"/>
+    <sheetView tabSelected="1" topLeftCell="E172" workbookViewId="0">
+      <selection activeCell="J184" sqref="J184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54271,35 +54266,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="55"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -54311,31 +54306,31 @@
       <c r="C2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="55" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="85"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="33" t="s">
         <v>128</v>
       </c>
@@ -54356,22 +54351,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="81" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="59" t="s">
         <v>505</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -54387,14 +54382,14 @@
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="35" t="s">
         <v>120</v>
       </c>
@@ -54408,14 +54403,14 @@
       <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="90"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="35" t="s">
         <v>119</v>
       </c>
@@ -54424,19 +54419,19 @@
       <c r="J6" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="K6" s="119"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="16"/>
       <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="34" t="s">
         <v>121</v>
       </c>
@@ -54445,21 +54440,21 @@
       <c r="J7" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="K7" s="119" t="s">
+      <c r="K7" s="52" t="s">
         <v>515</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="35" t="s">
         <v>122</v>
       </c>
@@ -54473,60 +54468,60 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="82" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="77" t="s">
+      <c r="E9" s="67"/>
+      <c r="F9" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="67" t="s">
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="120"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="121"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="56" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="82" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="77" t="s">
+      <c r="E11" s="67"/>
+      <c r="F11" s="59" t="s">
         <v>271</v>
       </c>
       <c r="G11" s="34" t="s">
@@ -54542,14 +54537,14 @@
       <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="90"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="43" t="s">
         <v>273</v>
       </c>
@@ -54563,14 +54558,14 @@
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="90"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="36" t="s">
         <v>274</v>
       </c>
@@ -54579,21 +54574,21 @@
       <c r="J13" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="K13" s="122" t="s">
+      <c r="K13" s="53" t="s">
         <v>511</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="90"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="36" t="s">
         <v>275</v>
       </c>
@@ -54607,14 +54602,14 @@
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="91"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="36" t="s">
         <v>276</v>
       </c>
@@ -54628,43 +54623,43 @@
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55" t="s">
+      <c r="I16" s="85"/>
+      <c r="J16" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55" t="s">
+      <c r="K16" s="85"/>
+      <c r="L16" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M16" s="55"/>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="62" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="71" t="s">
         <v>491</v>
       </c>
       <c r="G17" s="36" t="s">
@@ -54678,14 +54673,14 @@
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="104"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="34" t="s">
         <v>350</v>
       </c>
@@ -54697,14 +54692,14 @@
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="104"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="34" t="s">
         <v>351</v>
       </c>
@@ -54716,16 +54711,16 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="102" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="62" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="104"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="35" t="s">
         <v>356</v>
       </c>
@@ -54737,14 +54732,14 @@
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="102"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="104"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="34" t="s">
         <v>352</v>
       </c>
@@ -54756,14 +54751,14 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="104"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="34" t="s">
         <v>353</v>
       </c>
@@ -54775,14 +54770,14 @@
       <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="102"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="104"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="34" t="s">
         <v>354</v>
       </c>
@@ -54794,14 +54789,14 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="102"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="104"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="34" t="s">
         <v>355</v>
       </c>
@@ -54813,14 +54808,14 @@
       <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="104"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="34" t="s">
         <v>357</v>
       </c>
@@ -54832,14 +54827,14 @@
       <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="102"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="104"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="36" t="s">
         <v>358</v>
       </c>
@@ -54851,18 +54846,18 @@
       <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="81" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="104"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="34" t="s">
         <v>359</v>
       </c>
@@ -54874,14 +54869,14 @@
       <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="112"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="104"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="34" t="s">
         <v>360</v>
       </c>
@@ -54893,14 +54888,14 @@
       <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="112"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="104"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="34" t="s">
         <v>361</v>
       </c>
@@ -54912,14 +54907,14 @@
       <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="112"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="104"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="34" t="s">
         <v>362</v>
       </c>
@@ -54931,14 +54926,14 @@
       <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="112"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="104"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="72"/>
       <c r="G31" s="34" t="s">
         <v>363</v>
       </c>
@@ -54950,14 +54945,14 @@
       <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="112"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="104"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="34" t="s">
         <v>364</v>
       </c>
@@ -54969,16 +54964,16 @@
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="56" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="82" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="104"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="34" t="s">
         <v>365</v>
       </c>
@@ -54990,14 +54985,14 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="57"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="104"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="34" t="s">
         <v>366</v>
       </c>
@@ -55009,14 +55004,14 @@
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="104"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="34" t="s">
         <v>367</v>
       </c>
@@ -55028,16 +55023,16 @@
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="112" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="81" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="104"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="34" t="s">
         <v>368</v>
       </c>
@@ -55049,14 +55044,14 @@
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="112"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="104"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="34" t="s">
         <v>369</v>
       </c>
@@ -55068,14 +55063,14 @@
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="112"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="104"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="72"/>
       <c r="G38" s="34" t="s">
         <v>371</v>
       </c>
@@ -55087,14 +55082,14 @@
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="112"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="104"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="72"/>
       <c r="G39" s="34" t="s">
         <v>372</v>
       </c>
@@ -55106,14 +55101,14 @@
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="112"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="104"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="72"/>
       <c r="G40" s="35" t="s">
         <v>373</v>
       </c>
@@ -55125,14 +55120,14 @@
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="112"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="104"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="72"/>
       <c r="G41" s="34" t="s">
         <v>374</v>
       </c>
@@ -55144,16 +55139,16 @@
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="112" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="81" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="104"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="34" t="s">
         <v>375</v>
       </c>
@@ -55165,14 +55160,14 @@
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="112"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="104"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="35" t="s">
         <v>376</v>
       </c>
@@ -55184,14 +55179,14 @@
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="112"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="104"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="72"/>
       <c r="G44" s="34" t="s">
         <v>377</v>
       </c>
@@ -55203,14 +55198,14 @@
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="112"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="104"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="72"/>
       <c r="G45" s="34" t="s">
         <v>378</v>
       </c>
@@ -55222,14 +55217,14 @@
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="112"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="104"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="72"/>
       <c r="G46" s="36" t="s">
         <v>379</v>
       </c>
@@ -55241,14 +55236,14 @@
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="112"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="104"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="72"/>
       <c r="G47" s="34" t="s">
         <v>380</v>
       </c>
@@ -55260,14 +55255,14 @@
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="112"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="104"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="72"/>
       <c r="G48" s="34" t="s">
         <v>381</v>
       </c>
@@ -55279,14 +55274,14 @@
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="112"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="104"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="72"/>
       <c r="G49" s="34" t="s">
         <v>382</v>
       </c>
@@ -55298,14 +55293,14 @@
       <c r="M49" s="29"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="112"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="104"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="72"/>
       <c r="G50" s="34" t="s">
         <v>383</v>
       </c>
@@ -55317,14 +55312,14 @@
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="112"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="104"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="72"/>
       <c r="G51" s="34" t="s">
         <v>384</v>
       </c>
@@ -55336,16 +55331,16 @@
       <c r="M51" s="29"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62" t="s">
         <v>94</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="104"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="72"/>
       <c r="G52" s="37" t="s">
         <v>385</v>
       </c>
@@ -55357,14 +55352,14 @@
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="104"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="72"/>
       <c r="G53" s="34" t="s">
         <v>386</v>
       </c>
@@ -55376,18 +55371,18 @@
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
-      <c r="B54" s="59" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="56" t="s">
         <v>101</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="104"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="72"/>
       <c r="G54" s="37" t="s">
         <v>435</v>
       </c>
@@ -55399,14 +55394,14 @@
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="57"/>
-      <c r="F55" s="104"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="72"/>
       <c r="G55" s="34" t="s">
         <v>436</v>
       </c>
@@ -55418,14 +55413,14 @@
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="57"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="57"/>
-      <c r="F56" s="104"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="72"/>
       <c r="G56" s="34" t="s">
         <v>437</v>
       </c>
@@ -55437,14 +55432,14 @@
       <c r="M56" s="29"/>
     </row>
     <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="57"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="57"/>
-      <c r="F57" s="104"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="72"/>
       <c r="G57" s="34" t="s">
         <v>438</v>
       </c>
@@ -55456,14 +55451,14 @@
       <c r="M57" s="29"/>
     </row>
     <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="57"/>
-      <c r="F58" s="105"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="73"/>
       <c r="G58" s="34" t="s">
         <v>439</v>
       </c>
@@ -55475,20 +55470,20 @@
       <c r="M58" s="29"/>
     </row>
     <row r="59" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="56" t="s">
         <v>109</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="57"/>
-      <c r="F59" s="77" t="s">
+      <c r="E59" s="67"/>
+      <c r="F59" s="59" t="s">
         <v>464</v>
       </c>
       <c r="G59" s="25" t="s">
@@ -55502,14 +55497,14 @@
       <c r="M59" s="29"/>
     </row>
     <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="57"/>
-      <c r="F60" s="90"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="60"/>
       <c r="G60" s="34" t="s">
         <v>441</v>
       </c>
@@ -55521,14 +55516,14 @@
       <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="90"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="34" t="s">
         <v>442</v>
       </c>
@@ -55540,14 +55535,14 @@
       <c r="M61" s="29"/>
     </row>
     <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="57"/>
-      <c r="F62" s="90"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="34" t="s">
         <v>443</v>
       </c>
@@ -55559,14 +55554,14 @@
       <c r="M62" s="29"/>
     </row>
     <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="57"/>
-      <c r="F63" s="90"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="34" t="s">
         <v>444</v>
       </c>
@@ -55578,18 +55573,18 @@
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
-      <c r="B64" s="56" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="82" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="57"/>
-      <c r="F64" s="90"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="60"/>
       <c r="G64" s="34" t="s">
         <v>445</v>
       </c>
@@ -55601,14 +55596,14 @@
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="57"/>
-      <c r="F65" s="90"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="60"/>
       <c r="G65" s="34" t="s">
         <v>446</v>
       </c>
@@ -55620,14 +55615,14 @@
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E66" s="57"/>
-      <c r="F66" s="90"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="34" t="s">
         <v>447</v>
       </c>
@@ -55639,14 +55634,14 @@
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="57"/>
-      <c r="F67" s="90"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="60"/>
       <c r="G67" s="37" t="s">
         <v>448</v>
       </c>
@@ -55658,14 +55653,14 @@
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="68"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E68" s="57"/>
-      <c r="F68" s="90"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="60"/>
       <c r="G68" s="34" t="s">
         <v>449</v>
       </c>
@@ -55677,14 +55672,14 @@
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="68"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E69" s="57"/>
-      <c r="F69" s="90"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="60"/>
       <c r="G69" s="34" t="s">
         <v>450</v>
       </c>
@@ -55696,16 +55691,16 @@
       <c r="M69" s="29"/>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="88" t="s">
+      <c r="A70" s="64"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="66" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="57"/>
-      <c r="F70" s="90"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="34" t="s">
         <v>451</v>
       </c>
@@ -55717,14 +55712,14 @@
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="68"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="57"/>
-      <c r="F71" s="90"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="60"/>
       <c r="G71" s="23" t="s">
         <v>452</v>
       </c>
@@ -55736,14 +55731,14 @@
       <c r="M71" s="29"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="68"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="57"/>
-      <c r="F72" s="90"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="60"/>
       <c r="G72" s="23" t="s">
         <v>453</v>
       </c>
@@ -55755,14 +55750,14 @@
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="68"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="57"/>
-      <c r="F73" s="90"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="60"/>
       <c r="G73" s="22" t="s">
         <v>454</v>
       </c>
@@ -55774,14 +55769,14 @@
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E74" s="57"/>
-      <c r="F74" s="90"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="23" t="s">
         <v>455</v>
       </c>
@@ -55793,14 +55788,14 @@
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="68"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="57"/>
-      <c r="F75" s="90"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="60"/>
       <c r="G75" s="23" t="s">
         <v>456</v>
       </c>
@@ -55812,14 +55807,14 @@
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="68"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E76" s="57"/>
-      <c r="F76" s="90"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="23" t="s">
         <v>457</v>
       </c>
@@ -55831,18 +55826,18 @@
       <c r="M76" s="29"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="68"/>
-      <c r="B77" s="56" t="s">
+      <c r="A77" s="64"/>
+      <c r="B77" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="82" t="s">
         <v>150</v>
       </c>
       <c r="D77" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E77" s="57"/>
-      <c r="F77" s="90"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="60"/>
       <c r="G77" s="23" t="s">
         <v>458</v>
       </c>
@@ -55854,14 +55849,14 @@
       <c r="M77" s="29"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="68"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="57"/>
-      <c r="F78" s="90"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="60"/>
       <c r="G78" s="23" t="s">
         <v>459</v>
       </c>
@@ -55873,14 +55868,14 @@
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E79" s="57"/>
-      <c r="F79" s="90"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="23" t="s">
         <v>460</v>
       </c>
@@ -55892,14 +55887,14 @@
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="68"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E80" s="57"/>
-      <c r="F80" s="90"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="23" t="s">
         <v>461</v>
       </c>
@@ -55911,14 +55906,14 @@
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="68"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="90"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="60"/>
       <c r="G81" s="23" t="s">
         <v>462</v>
       </c>
@@ -55930,14 +55925,14 @@
       <c r="M81" s="29"/>
     </row>
     <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="69"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="68"/>
       <c r="D82" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E82" s="58"/>
-      <c r="F82" s="91"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="23" t="s">
         <v>463</v>
       </c>
@@ -55949,43 +55944,43 @@
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="55" t="s">
+      <c r="A83" s="78"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55" t="s">
+      <c r="I83" s="85"/>
+      <c r="J83" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55" t="s">
+      <c r="K83" s="85"/>
+      <c r="L83" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M83" s="55"/>
+      <c r="M83" s="85"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="C84" s="82" t="s">
         <v>158</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="92" t="s">
+      <c r="F84" s="96" t="s">
         <v>466</v>
       </c>
       <c r="G84" s="34" t="s">
@@ -55999,14 +55994,14 @@
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
       <c r="D85" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E85" s="57"/>
-      <c r="F85" s="92"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="96"/>
       <c r="G85" s="35" t="s">
         <v>163</v>
       </c>
@@ -56018,14 +56013,14 @@
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E86" s="57"/>
-      <c r="F86" s="92"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="96"/>
       <c r="G86" s="34" t="s">
         <v>165</v>
       </c>
@@ -56037,14 +56032,14 @@
       <c r="M86" s="29"/>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E87" s="57"/>
-      <c r="F87" s="92"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="96"/>
       <c r="G87" s="34" t="s">
         <v>167</v>
       </c>
@@ -56056,14 +56051,14 @@
       <c r="M87" s="29"/>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E88" s="57"/>
-      <c r="F88" s="92"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="96"/>
       <c r="G88" s="34" t="s">
         <v>169</v>
       </c>
@@ -56075,14 +56070,14 @@
       <c r="M88" s="29"/>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E89" s="57"/>
-      <c r="F89" s="92"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="96"/>
       <c r="G89" s="39" t="s">
         <v>171</v>
       </c>
@@ -56094,14 +56089,14 @@
       <c r="M89" s="29"/>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="57"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="92"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="96"/>
       <c r="G90" s="39" t="s">
         <v>173</v>
       </c>
@@ -56113,14 +56108,14 @@
       <c r="M90" s="29"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="58"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="68"/>
       <c r="D91" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="92"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="96"/>
       <c r="G91" s="23" t="s">
         <v>175</v>
       </c>
@@ -56132,16 +56127,16 @@
       <c r="M91" s="29"/>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="56" t="s">
+      <c r="A92" s="67"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="82" t="s">
         <v>176</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="93" t="s">
+      <c r="E92" s="67"/>
+      <c r="F92" s="84" t="s">
         <v>467</v>
       </c>
       <c r="G92" s="23" t="s">
@@ -56155,14 +56150,14 @@
       <c r="M92" s="29"/>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E93" s="57"/>
-      <c r="F93" s="93"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="84"/>
       <c r="G93" s="23" t="s">
         <v>180</v>
       </c>
@@ -56174,14 +56169,14 @@
       <c r="M93" s="29"/>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="57"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
       <c r="D94" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="57"/>
-      <c r="F94" s="93"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="84"/>
       <c r="G94" s="23" t="s">
         <v>182</v>
       </c>
@@ -56193,14 +56188,14 @@
       <c r="M94" s="29"/>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="57"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
       <c r="D95" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E95" s="57"/>
-      <c r="F95" s="93"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="84"/>
       <c r="G95" s="23" t="s">
         <v>184</v>
       </c>
@@ -56212,14 +56207,14 @@
       <c r="M95" s="29"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="57"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
       <c r="D96" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E96" s="57"/>
-      <c r="F96" s="93"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="84"/>
       <c r="G96" s="23" t="s">
         <v>186</v>
       </c>
@@ -56231,18 +56226,18 @@
       <c r="M96" s="29"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="57"/>
-      <c r="B97" s="56" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="82" t="s">
         <v>188</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E97" s="57"/>
-      <c r="F97" s="93" t="s">
+      <c r="E97" s="67"/>
+      <c r="F97" s="84" t="s">
         <v>468</v>
       </c>
       <c r="G97" s="25" t="s">
@@ -56256,14 +56251,14 @@
       <c r="M97" s="29"/>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E98" s="57"/>
-      <c r="F98" s="93"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="84"/>
       <c r="G98" s="23" t="s">
         <v>192</v>
       </c>
@@ -56275,14 +56270,14 @@
       <c r="M98" s="29"/>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
       <c r="D99" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="E99" s="57"/>
-      <c r="F99" s="93"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="84"/>
       <c r="G99" s="23" t="s">
         <v>194</v>
       </c>
@@ -56294,14 +56289,14 @@
       <c r="M99" s="29"/>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
       <c r="D100" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="E100" s="57"/>
-      <c r="F100" s="93"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="84"/>
       <c r="G100" s="35" t="s">
         <v>196</v>
       </c>
@@ -56313,14 +56308,14 @@
       <c r="M100" s="29"/>
     </row>
     <row r="101" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
+      <c r="A101" s="67"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
       <c r="D101" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="E101" s="57"/>
-      <c r="F101" s="93"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="84"/>
       <c r="G101" s="25" t="s">
         <v>198</v>
       </c>
@@ -56332,14 +56327,14 @@
       <c r="M101" s="29"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
       <c r="D102" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="57"/>
-      <c r="F102" s="93"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="84"/>
       <c r="G102" s="25" t="s">
         <v>200</v>
       </c>
@@ -56351,14 +56346,14 @@
       <c r="M102" s="29"/>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="58"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
       <c r="D103" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E103" s="57"/>
-      <c r="F103" s="93"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="84"/>
       <c r="G103" s="23" t="s">
         <v>202</v>
       </c>
@@ -56370,19 +56365,19 @@
       <c r="M103" s="29"/>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="67" t="s">
+      <c r="A104" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="B104" s="67" t="s">
+      <c r="B104" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="56" t="s">
         <v>204</v>
       </c>
       <c r="D104" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="57"/>
+      <c r="E104" s="67"/>
       <c r="F104" s="25" t="s">
         <v>469</v>
       </c>
@@ -56397,14 +56392,14 @@
       <c r="M104" s="29"/>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="68"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E105" s="57"/>
-      <c r="F105" s="77" t="s">
+      <c r="E105" s="67"/>
+      <c r="F105" s="59" t="s">
         <v>470</v>
       </c>
       <c r="G105" s="23" t="s">
@@ -56418,14 +56413,14 @@
       <c r="M105" s="29"/>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E106" s="57"/>
-      <c r="F106" s="78"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="97"/>
       <c r="G106" s="23" t="s">
         <v>210</v>
       </c>
@@ -56437,14 +56432,14 @@
       <c r="M106" s="29"/>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="68"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E107" s="57"/>
-      <c r="F107" s="78"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="97"/>
       <c r="G107" s="23" t="s">
         <v>169</v>
       </c>
@@ -56456,14 +56451,14 @@
       <c r="M107" s="29"/>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="68"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
       <c r="D108" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="E108" s="57"/>
-      <c r="F108" s="78"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="97"/>
       <c r="G108" s="23" t="s">
         <v>213</v>
       </c>
@@ -56475,14 +56470,14 @@
       <c r="M108" s="29"/>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="68"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
       <c r="D109" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="E109" s="57"/>
-      <c r="F109" s="78"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="97"/>
       <c r="G109" s="23" t="s">
         <v>215</v>
       </c>
@@ -56494,14 +56489,14 @@
       <c r="M109" s="29"/>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="68"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
       <c r="D110" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="E110" s="57"/>
-      <c r="F110" s="78"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="97"/>
       <c r="G110" s="25" t="s">
         <v>217</v>
       </c>
@@ -56513,14 +56508,14 @@
       <c r="M110" s="29"/>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="68"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
       <c r="D111" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E111" s="57"/>
-      <c r="F111" s="78"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="97"/>
       <c r="G111" s="25" t="s">
         <v>219</v>
       </c>
@@ -56532,14 +56527,14 @@
       <c r="M111" s="29"/>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="68"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
       <c r="D112" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E112" s="57"/>
-      <c r="F112" s="78"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="97"/>
       <c r="G112" s="22" t="s">
         <v>221</v>
       </c>
@@ -56551,14 +56546,14 @@
       <c r="M112" s="29"/>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="68"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
       <c r="D113" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E113" s="57"/>
-      <c r="F113" s="78"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="97"/>
       <c r="G113" s="23" t="s">
         <v>223</v>
       </c>
@@ -56570,14 +56565,14 @@
       <c r="M113" s="29"/>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="68"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
       <c r="D114" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E114" s="57"/>
-      <c r="F114" s="78"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="97"/>
       <c r="G114" s="23" t="s">
         <v>225</v>
       </c>
@@ -56589,18 +56584,18 @@
       <c r="M114" s="29"/>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="68"/>
-      <c r="B115" s="67" t="s">
+      <c r="A115" s="64"/>
+      <c r="B115" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="67" t="s">
+      <c r="C115" s="56" t="s">
         <v>226</v>
       </c>
       <c r="D115" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E115" s="57"/>
-      <c r="F115" s="78"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="97"/>
       <c r="G115" s="23" t="s">
         <v>213</v>
       </c>
@@ -56612,14 +56607,14 @@
       <c r="M115" s="29"/>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="68"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
       <c r="D116" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="57"/>
-      <c r="F116" s="78"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="97"/>
       <c r="G116" s="23" t="s">
         <v>229</v>
       </c>
@@ -56631,14 +56626,14 @@
       <c r="M116" s="29"/>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="68"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="68"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
       <c r="D117" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="E117" s="57"/>
-      <c r="F117" s="78"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="97"/>
       <c r="G117" s="23" t="s">
         <v>231</v>
       </c>
@@ -56650,14 +56645,14 @@
       <c r="M117" s="29"/>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="68"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="68"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
       <c r="D118" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E118" s="57"/>
-      <c r="F118" s="78"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="97"/>
       <c r="G118" s="23" t="s">
         <v>233</v>
       </c>
@@ -56669,14 +56664,14 @@
       <c r="M118" s="29"/>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
-      <c r="B119" s="68"/>
-      <c r="C119" s="68"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
       <c r="D119" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E119" s="57"/>
-      <c r="F119" s="78"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="97"/>
       <c r="G119" s="23" t="s">
         <v>235</v>
       </c>
@@ -56688,14 +56683,14 @@
       <c r="M119" s="29"/>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="69"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="69"/>
+      <c r="A120" s="65"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E120" s="58"/>
-      <c r="F120" s="79"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="98"/>
       <c r="G120" s="23" t="s">
         <v>237</v>
       </c>
@@ -56707,43 +56702,43 @@
       <c r="M120" s="29"/>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="55" t="s">
+      <c r="A121" s="78"/>
+      <c r="B121" s="79"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="80"/>
+      <c r="H121" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55" t="s">
+      <c r="I121" s="85"/>
+      <c r="J121" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K121" s="55"/>
-      <c r="L121" s="55" t="s">
+      <c r="K121" s="85"/>
+      <c r="L121" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M121" s="55"/>
+      <c r="M121" s="85"/>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="B122" s="85" t="s">
+      <c r="B122" s="101" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="87" t="s">
+      <c r="C122" s="102" t="s">
         <v>387</v>
       </c>
       <c r="D122" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="E122" s="89" t="s">
+      <c r="E122" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="F122" s="59" t="s">
+      <c r="F122" s="63" t="s">
         <v>465</v>
       </c>
       <c r="G122" s="46" t="s">
@@ -56757,14 +56752,14 @@
       <c r="M122" s="29"/>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="84"/>
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
+      <c r="A123" s="100"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="93"/>
       <c r="D123" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="E123" s="86"/>
-      <c r="F123" s="60"/>
+      <c r="E123" s="93"/>
+      <c r="F123" s="94"/>
       <c r="G123" s="46" t="s">
         <v>399</v>
       </c>
@@ -56776,14 +56771,14 @@
       <c r="M123" s="29"/>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="84"/>
-      <c r="B124" s="86"/>
-      <c r="C124" s="86"/>
+      <c r="A124" s="100"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="93"/>
       <c r="D124" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="E124" s="86"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="93"/>
+      <c r="F124" s="94"/>
       <c r="G124" s="43" t="s">
         <v>400</v>
       </c>
@@ -56795,14 +56790,14 @@
       <c r="M124" s="29"/>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="84"/>
-      <c r="B125" s="86"/>
-      <c r="C125" s="86"/>
+      <c r="A125" s="100"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="93"/>
       <c r="D125" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="E125" s="86"/>
-      <c r="F125" s="60"/>
+      <c r="E125" s="93"/>
+      <c r="F125" s="94"/>
       <c r="G125" s="42" t="s">
         <v>401</v>
       </c>
@@ -56814,14 +56809,14 @@
       <c r="M125" s="29"/>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="84"/>
-      <c r="B126" s="86"/>
-      <c r="C126" s="86"/>
+      <c r="A126" s="100"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="93"/>
       <c r="D126" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="E126" s="86"/>
-      <c r="F126" s="60"/>
+      <c r="E126" s="93"/>
+      <c r="F126" s="94"/>
       <c r="G126" s="23" t="s">
         <v>402</v>
       </c>
@@ -56833,14 +56828,14 @@
       <c r="M126" s="29"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="84"/>
-      <c r="B127" s="86"/>
-      <c r="C127" s="86"/>
+      <c r="A127" s="100"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
       <c r="D127" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="E127" s="86"/>
-      <c r="F127" s="60"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="94"/>
       <c r="G127" s="23" t="s">
         <v>403</v>
       </c>
@@ -56852,14 +56847,14 @@
       <c r="M127" s="29"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="84"/>
-      <c r="B128" s="86"/>
-      <c r="C128" s="86"/>
+      <c r="A128" s="100"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="93"/>
       <c r="D128" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="E128" s="86"/>
-      <c r="F128" s="60"/>
+      <c r="E128" s="93"/>
+      <c r="F128" s="94"/>
       <c r="G128" s="23" t="s">
         <v>404</v>
       </c>
@@ -56871,16 +56866,16 @@
       <c r="M128" s="29"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="84"/>
-      <c r="B129" s="86"/>
-      <c r="C129" s="67" t="s">
+      <c r="A129" s="100"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="56" t="s">
         <v>388</v>
       </c>
       <c r="D129" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="E129" s="86"/>
-      <c r="F129" s="60"/>
+      <c r="E129" s="93"/>
+      <c r="F129" s="94"/>
       <c r="G129" s="22" t="s">
         <v>405</v>
       </c>
@@ -56892,14 +56887,14 @@
       <c r="M129" s="29"/>
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="84"/>
-      <c r="B130" s="86"/>
-      <c r="C130" s="68"/>
+      <c r="A130" s="100"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="64"/>
       <c r="D130" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="E130" s="86"/>
-      <c r="F130" s="60"/>
+      <c r="E130" s="93"/>
+      <c r="F130" s="94"/>
       <c r="G130" s="23" t="s">
         <v>406</v>
       </c>
@@ -56911,14 +56906,14 @@
       <c r="M130" s="29"/>
     </row>
     <row r="131" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="84"/>
-      <c r="B131" s="86"/>
-      <c r="C131" s="68"/>
+      <c r="A131" s="100"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="64"/>
       <c r="D131" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="E131" s="86"/>
-      <c r="F131" s="60"/>
+      <c r="E131" s="93"/>
+      <c r="F131" s="94"/>
       <c r="G131" s="23" t="s">
         <v>407</v>
       </c>
@@ -56930,14 +56925,14 @@
       <c r="M131" s="29"/>
     </row>
     <row r="132" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="84"/>
-      <c r="B132" s="86"/>
-      <c r="C132" s="68"/>
+      <c r="A132" s="100"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="64"/>
       <c r="D132" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="E132" s="86"/>
-      <c r="F132" s="60"/>
+      <c r="E132" s="93"/>
+      <c r="F132" s="94"/>
       <c r="G132" s="23" t="s">
         <v>408</v>
       </c>
@@ -56949,14 +56944,14 @@
       <c r="M132" s="29"/>
     </row>
     <row r="133" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="84"/>
-      <c r="B133" s="86"/>
-      <c r="C133" s="68"/>
+      <c r="A133" s="100"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="64"/>
       <c r="D133" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="E133" s="86"/>
-      <c r="F133" s="60"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="94"/>
       <c r="G133" s="23" t="s">
         <v>409</v>
       </c>
@@ -56968,14 +56963,14 @@
       <c r="M133" s="29"/>
     </row>
     <row r="134" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="84"/>
-      <c r="B134" s="86"/>
-      <c r="C134" s="69"/>
+      <c r="A134" s="100"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="65"/>
       <c r="D134" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="E134" s="86"/>
-      <c r="F134" s="60"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="94"/>
       <c r="G134" s="23" t="s">
         <v>410</v>
       </c>
@@ -56987,16 +56982,16 @@
       <c r="M134" s="29"/>
     </row>
     <row r="135" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="84"/>
-      <c r="B135" s="86"/>
-      <c r="C135" s="67" t="s">
+      <c r="A135" s="100"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="56" t="s">
         <v>389</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="E135" s="86"/>
-      <c r="F135" s="60"/>
+      <c r="E135" s="93"/>
+      <c r="F135" s="94"/>
       <c r="G135" s="23" t="s">
         <v>411</v>
       </c>
@@ -57008,14 +57003,14 @@
       <c r="M135" s="29"/>
     </row>
     <row r="136" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="84"/>
-      <c r="B136" s="86"/>
-      <c r="C136" s="68"/>
+      <c r="A136" s="100"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="64"/>
       <c r="D136" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="E136" s="86"/>
-      <c r="F136" s="60"/>
+      <c r="E136" s="93"/>
+      <c r="F136" s="94"/>
       <c r="G136" s="23" t="s">
         <v>412</v>
       </c>
@@ -57027,14 +57022,14 @@
       <c r="M136" s="29"/>
     </row>
     <row r="137" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="84"/>
-      <c r="B137" s="86"/>
-      <c r="C137" s="68"/>
+      <c r="A137" s="100"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="64"/>
       <c r="D137" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E137" s="86"/>
-      <c r="F137" s="60"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="94"/>
       <c r="G137" s="23" t="s">
         <v>413</v>
       </c>
@@ -57046,14 +57041,14 @@
       <c r="M137" s="29"/>
     </row>
     <row r="138" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="84"/>
-      <c r="B138" s="86"/>
-      <c r="C138" s="68"/>
+      <c r="A138" s="100"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="64"/>
       <c r="D138" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="E138" s="86"/>
-      <c r="F138" s="60"/>
+      <c r="E138" s="93"/>
+      <c r="F138" s="94"/>
       <c r="G138" s="23" t="s">
         <v>414</v>
       </c>
@@ -57065,14 +57060,14 @@
       <c r="M138" s="29"/>
     </row>
     <row r="139" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="84"/>
-      <c r="B139" s="86"/>
-      <c r="C139" s="68"/>
+      <c r="A139" s="100"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="64"/>
       <c r="D139" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="E139" s="86"/>
-      <c r="F139" s="60"/>
+      <c r="E139" s="93"/>
+      <c r="F139" s="94"/>
       <c r="G139" s="23" t="s">
         <v>415</v>
       </c>
@@ -57084,14 +57079,14 @@
       <c r="M139" s="29"/>
     </row>
     <row r="140" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="84"/>
-      <c r="B140" s="86"/>
-      <c r="C140" s="68"/>
+      <c r="A140" s="100"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="64"/>
       <c r="D140" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="E140" s="86"/>
-      <c r="F140" s="60"/>
+      <c r="E140" s="93"/>
+      <c r="F140" s="94"/>
       <c r="G140" s="23" t="s">
         <v>434</v>
       </c>
@@ -57103,14 +57098,14 @@
       <c r="M140" s="29"/>
     </row>
     <row r="141" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="84"/>
-      <c r="B141" s="86"/>
-      <c r="C141" s="68"/>
+      <c r="A141" s="100"/>
+      <c r="B141" s="93"/>
+      <c r="C141" s="64"/>
       <c r="D141" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E141" s="86"/>
-      <c r="F141" s="60"/>
+      <c r="E141" s="93"/>
+      <c r="F141" s="94"/>
       <c r="G141" s="23" t="s">
         <v>416</v>
       </c>
@@ -57122,14 +57117,14 @@
       <c r="M141" s="29"/>
     </row>
     <row r="142" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="84"/>
-      <c r="B142" s="86"/>
-      <c r="C142" s="68"/>
+      <c r="A142" s="100"/>
+      <c r="B142" s="93"/>
+      <c r="C142" s="64"/>
       <c r="D142" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="E142" s="86"/>
-      <c r="F142" s="60"/>
+      <c r="E142" s="93"/>
+      <c r="F142" s="94"/>
       <c r="G142" s="23" t="s">
         <v>417</v>
       </c>
@@ -57141,14 +57136,14 @@
       <c r="M142" s="29"/>
     </row>
     <row r="143" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="84"/>
-      <c r="B143" s="86"/>
-      <c r="C143" s="68"/>
+      <c r="A143" s="100"/>
+      <c r="B143" s="93"/>
+      <c r="C143" s="64"/>
       <c r="D143" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="E143" s="86"/>
-      <c r="F143" s="60"/>
+      <c r="E143" s="93"/>
+      <c r="F143" s="94"/>
       <c r="G143" s="23" t="s">
         <v>418</v>
       </c>
@@ -57160,14 +57155,14 @@
       <c r="M143" s="29"/>
     </row>
     <row r="144" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="84"/>
-      <c r="B144" s="86"/>
-      <c r="C144" s="68"/>
+      <c r="A144" s="100"/>
+      <c r="B144" s="93"/>
+      <c r="C144" s="64"/>
       <c r="D144" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E144" s="86"/>
-      <c r="F144" s="60"/>
+      <c r="E144" s="93"/>
+      <c r="F144" s="94"/>
       <c r="G144" s="23" t="s">
         <v>419</v>
       </c>
@@ -57179,14 +57174,14 @@
       <c r="M144" s="29"/>
     </row>
     <row r="145" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="84"/>
-      <c r="B145" s="86"/>
-      <c r="C145" s="68"/>
+      <c r="A145" s="100"/>
+      <c r="B145" s="93"/>
+      <c r="C145" s="64"/>
       <c r="D145" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="E145" s="86"/>
-      <c r="F145" s="60"/>
+      <c r="E145" s="93"/>
+      <c r="F145" s="94"/>
       <c r="G145" s="23" t="s">
         <v>420</v>
       </c>
@@ -57198,14 +57193,14 @@
       <c r="M145" s="29"/>
     </row>
     <row r="146" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="84"/>
-      <c r="B146" s="86"/>
-      <c r="C146" s="68"/>
+      <c r="A146" s="100"/>
+      <c r="B146" s="93"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="E146" s="86"/>
-      <c r="F146" s="60"/>
+      <c r="E146" s="93"/>
+      <c r="F146" s="94"/>
       <c r="G146" s="23" t="s">
         <v>421</v>
       </c>
@@ -57217,14 +57212,14 @@
       <c r="M146" s="29"/>
     </row>
     <row r="147" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="84"/>
-      <c r="B147" s="86"/>
-      <c r="C147" s="68"/>
+      <c r="A147" s="100"/>
+      <c r="B147" s="93"/>
+      <c r="C147" s="64"/>
       <c r="D147" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E147" s="86"/>
-      <c r="F147" s="60"/>
+      <c r="E147" s="93"/>
+      <c r="F147" s="94"/>
       <c r="G147" s="23" t="s">
         <v>422</v>
       </c>
@@ -57236,14 +57231,14 @@
       <c r="M147" s="29"/>
     </row>
     <row r="148" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="84"/>
-      <c r="B148" s="86"/>
-      <c r="C148" s="69"/>
+      <c r="A148" s="100"/>
+      <c r="B148" s="93"/>
+      <c r="C148" s="65"/>
       <c r="D148" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E148" s="86"/>
-      <c r="F148" s="60"/>
+      <c r="E148" s="93"/>
+      <c r="F148" s="94"/>
       <c r="G148" s="23" t="s">
         <v>423</v>
       </c>
@@ -57255,16 +57250,16 @@
       <c r="M148" s="29"/>
     </row>
     <row r="149" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="84"/>
-      <c r="B149" s="86"/>
-      <c r="C149" s="56" t="s">
+      <c r="A149" s="100"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="82" t="s">
         <v>390</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="E149" s="86"/>
-      <c r="F149" s="60"/>
+      <c r="E149" s="93"/>
+      <c r="F149" s="94"/>
       <c r="G149" s="32" t="s">
         <v>424</v>
       </c>
@@ -57276,14 +57271,14 @@
       <c r="M149" s="29"/>
     </row>
     <row r="150" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="84"/>
-      <c r="B150" s="86"/>
-      <c r="C150" s="57"/>
+      <c r="A150" s="100"/>
+      <c r="B150" s="93"/>
+      <c r="C150" s="67"/>
       <c r="D150" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="E150" s="86"/>
-      <c r="F150" s="60"/>
+      <c r="E150" s="93"/>
+      <c r="F150" s="94"/>
       <c r="G150" s="23" t="s">
         <v>425</v>
       </c>
@@ -57295,14 +57290,14 @@
       <c r="M150" s="29"/>
     </row>
     <row r="151" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="84"/>
-      <c r="B151" s="86"/>
-      <c r="C151" s="57"/>
+      <c r="A151" s="100"/>
+      <c r="B151" s="93"/>
+      <c r="C151" s="67"/>
       <c r="D151" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E151" s="86"/>
-      <c r="F151" s="60"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="94"/>
       <c r="G151" s="23" t="s">
         <v>426</v>
       </c>
@@ -57314,14 +57309,14 @@
       <c r="M151" s="29"/>
     </row>
     <row r="152" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="84"/>
-      <c r="B152" s="86"/>
-      <c r="C152" s="57"/>
+      <c r="A152" s="100"/>
+      <c r="B152" s="93"/>
+      <c r="C152" s="67"/>
       <c r="D152" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E152" s="86"/>
-      <c r="F152" s="60"/>
+      <c r="E152" s="93"/>
+      <c r="F152" s="94"/>
       <c r="G152" s="23" t="s">
         <v>427</v>
       </c>
@@ -57333,14 +57328,14 @@
       <c r="M152" s="29"/>
     </row>
     <row r="153" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="84"/>
-      <c r="B153" s="86"/>
-      <c r="C153" s="57"/>
+      <c r="A153" s="100"/>
+      <c r="B153" s="93"/>
+      <c r="C153" s="67"/>
       <c r="D153" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E153" s="86"/>
-      <c r="F153" s="60"/>
+      <c r="E153" s="93"/>
+      <c r="F153" s="94"/>
       <c r="G153" s="23" t="s">
         <v>428</v>
       </c>
@@ -57352,14 +57347,14 @@
       <c r="M153" s="29"/>
     </row>
     <row r="154" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="84"/>
-      <c r="B154" s="86"/>
-      <c r="C154" s="57"/>
+      <c r="A154" s="100"/>
+      <c r="B154" s="93"/>
+      <c r="C154" s="67"/>
       <c r="D154" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="E154" s="86"/>
-      <c r="F154" s="60"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="94"/>
       <c r="G154" s="23" t="s">
         <v>429</v>
       </c>
@@ -57371,14 +57366,14 @@
       <c r="M154" s="29"/>
     </row>
     <row r="155" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="84"/>
-      <c r="B155" s="86"/>
-      <c r="C155" s="57"/>
+      <c r="A155" s="100"/>
+      <c r="B155" s="93"/>
+      <c r="C155" s="67"/>
       <c r="D155" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="E155" s="86"/>
-      <c r="F155" s="60"/>
+      <c r="E155" s="93"/>
+      <c r="F155" s="94"/>
       <c r="G155" s="23" t="s">
         <v>430</v>
       </c>
@@ -57390,14 +57385,14 @@
       <c r="M155" s="29"/>
     </row>
     <row r="156" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="84"/>
-      <c r="B156" s="86"/>
-      <c r="C156" s="57"/>
+      <c r="A156" s="100"/>
+      <c r="B156" s="93"/>
+      <c r="C156" s="67"/>
       <c r="D156" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E156" s="86"/>
-      <c r="F156" s="60"/>
+      <c r="E156" s="93"/>
+      <c r="F156" s="94"/>
       <c r="G156" s="23" t="s">
         <v>431</v>
       </c>
@@ -57409,14 +57404,14 @@
       <c r="M156" s="29"/>
     </row>
     <row r="157" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="84"/>
-      <c r="B157" s="86"/>
-      <c r="C157" s="57"/>
+      <c r="A157" s="100"/>
+      <c r="B157" s="93"/>
+      <c r="C157" s="67"/>
       <c r="D157" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="E157" s="86"/>
-      <c r="F157" s="60"/>
+      <c r="E157" s="93"/>
+      <c r="F157" s="94"/>
       <c r="G157" s="23" t="s">
         <v>432</v>
       </c>
@@ -57428,14 +57423,14 @@
       <c r="M157" s="29"/>
     </row>
     <row r="158" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="84"/>
-      <c r="B158" s="86"/>
-      <c r="C158" s="57"/>
+      <c r="A158" s="100"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="67"/>
       <c r="D158" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="E158" s="86"/>
-      <c r="F158" s="61"/>
+      <c r="E158" s="93"/>
+      <c r="F158" s="95"/>
       <c r="G158" s="23" t="s">
         <v>433</v>
       </c>
@@ -57447,43 +57442,43 @@
       <c r="M158" s="29"/>
     </row>
     <row r="159" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
-      <c r="B159" s="53"/>
-      <c r="C159" s="53"/>
-      <c r="D159" s="53"/>
-      <c r="E159" s="53"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="55" t="s">
+      <c r="A159" s="78"/>
+      <c r="B159" s="79"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="80"/>
+      <c r="H159" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I159" s="55"/>
-      <c r="J159" s="55" t="s">
+      <c r="I159" s="85"/>
+      <c r="J159" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K159" s="55"/>
-      <c r="L159" s="55" t="s">
+      <c r="K159" s="85"/>
+      <c r="L159" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M159" s="55"/>
+      <c r="M159" s="85"/>
     </row>
     <row r="160" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="56" t="s">
+      <c r="A160" s="82" t="s">
         <v>277</v>
       </c>
-      <c r="B160" s="56" t="s">
+      <c r="B160" s="82" t="s">
         <v>277</v>
       </c>
-      <c r="C160" s="56" t="s">
+      <c r="C160" s="82" t="s">
         <v>278</v>
       </c>
       <c r="D160" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="E160" s="56" t="s">
+      <c r="E160" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="F160" s="67" t="s">
+      <c r="F160" s="56" t="s">
         <v>281</v>
       </c>
       <c r="G160" s="35" t="s">
@@ -57497,14 +57492,14 @@
       <c r="M160" s="29"/>
     </row>
     <row r="161" spans="1:14" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A161" s="57"/>
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
+      <c r="A161" s="67"/>
+      <c r="B161" s="67"/>
+      <c r="C161" s="67"/>
       <c r="D161" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="E161" s="57"/>
-      <c r="F161" s="68"/>
+      <c r="E161" s="67"/>
+      <c r="F161" s="64"/>
       <c r="G161" s="44" t="s">
         <v>284</v>
       </c>
@@ -57516,14 +57511,14 @@
       <c r="M161" s="29"/>
     </row>
     <row r="162" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="57"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
+      <c r="A162" s="67"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
       <c r="D162" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="E162" s="57"/>
-      <c r="F162" s="68"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="64"/>
       <c r="G162" s="35" t="s">
         <v>286</v>
       </c>
@@ -57535,14 +57530,14 @@
       <c r="M162" s="29"/>
     </row>
     <row r="163" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="57"/>
-      <c r="B163" s="57"/>
-      <c r="C163" s="57"/>
+      <c r="A163" s="67"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="67"/>
       <c r="D163" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="E163" s="57"/>
-      <c r="F163" s="68"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="64"/>
       <c r="G163" s="34" t="s">
         <v>288</v>
       </c>
@@ -57554,14 +57549,14 @@
       <c r="M163" s="29"/>
     </row>
     <row r="164" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="57"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="57"/>
+      <c r="A164" s="67"/>
+      <c r="B164" s="67"/>
+      <c r="C164" s="67"/>
       <c r="D164" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="E164" s="57"/>
-      <c r="F164" s="68"/>
+      <c r="E164" s="67"/>
+      <c r="F164" s="64"/>
       <c r="G164" s="35" t="s">
         <v>290</v>
       </c>
@@ -57573,14 +57568,14 @@
       <c r="M164" s="29"/>
     </row>
     <row r="165" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="57"/>
-      <c r="B165" s="57"/>
-      <c r="C165" s="57"/>
+      <c r="A165" s="67"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="67"/>
       <c r="D165" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E165" s="57"/>
-      <c r="F165" s="68"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="64"/>
       <c r="G165" s="34" t="s">
         <v>292</v>
       </c>
@@ -57592,14 +57587,14 @@
       <c r="M165" s="29"/>
     </row>
     <row r="166" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="57"/>
-      <c r="B166" s="57"/>
-      <c r="C166" s="57"/>
+      <c r="A166" s="67"/>
+      <c r="B166" s="67"/>
+      <c r="C166" s="67"/>
       <c r="D166" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="E166" s="57"/>
-      <c r="F166" s="68"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="64"/>
       <c r="G166" s="35" t="s">
         <v>294</v>
       </c>
@@ -57611,14 +57606,14 @@
       <c r="M166" s="29"/>
     </row>
     <row r="167" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="57"/>
-      <c r="B167" s="57"/>
-      <c r="C167" s="57"/>
+      <c r="A167" s="67"/>
+      <c r="B167" s="67"/>
+      <c r="C167" s="67"/>
       <c r="D167" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E167" s="57"/>
-      <c r="F167" s="68"/>
+      <c r="E167" s="67"/>
+      <c r="F167" s="64"/>
       <c r="G167" s="35" t="s">
         <v>296</v>
       </c>
@@ -57630,14 +57625,14 @@
       <c r="M167" s="29"/>
     </row>
     <row r="168" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="57"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="57"/>
+      <c r="A168" s="67"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="67"/>
       <c r="D168" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E168" s="57"/>
-      <c r="F168" s="68"/>
+      <c r="E168" s="67"/>
+      <c r="F168" s="64"/>
       <c r="G168" s="34" t="s">
         <v>298</v>
       </c>
@@ -57649,14 +57644,14 @@
       <c r="M168" s="29"/>
     </row>
     <row r="169" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="57"/>
-      <c r="B169" s="57"/>
-      <c r="C169" s="57"/>
+      <c r="A169" s="67"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
       <c r="D169" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="E169" s="57"/>
-      <c r="F169" s="68"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="64"/>
       <c r="G169" s="34" t="s">
         <v>300</v>
       </c>
@@ -57668,14 +57663,14 @@
       <c r="M169" s="29"/>
     </row>
     <row r="170" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="57"/>
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
+      <c r="A170" s="67"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
       <c r="D170" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="E170" s="57"/>
-      <c r="F170" s="68"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="64"/>
       <c r="G170" s="35" t="s">
         <v>302</v>
       </c>
@@ -57687,14 +57682,14 @@
       <c r="M170" s="29"/>
     </row>
     <row r="171" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="57"/>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
+      <c r="A171" s="67"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="67"/>
       <c r="D171" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E171" s="57"/>
-      <c r="F171" s="68"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="64"/>
       <c r="G171" s="34" t="s">
         <v>304</v>
       </c>
@@ -57706,14 +57701,14 @@
       <c r="M171" s="29"/>
     </row>
     <row r="172" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="57"/>
-      <c r="B172" s="57"/>
-      <c r="C172" s="57"/>
+      <c r="A172" s="67"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
       <c r="D172" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="E172" s="57"/>
-      <c r="F172" s="68"/>
+      <c r="E172" s="67"/>
+      <c r="F172" s="64"/>
       <c r="G172" s="34" t="s">
         <v>306</v>
       </c>
@@ -57725,14 +57720,14 @@
       <c r="M172" s="29"/>
     </row>
     <row r="173" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="58"/>
-      <c r="B173" s="58"/>
-      <c r="C173" s="58"/>
+      <c r="A173" s="68"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="68"/>
       <c r="D173" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="E173" s="58"/>
-      <c r="F173" s="69"/>
+      <c r="E173" s="68"/>
+      <c r="F173" s="65"/>
       <c r="G173" s="34" t="s">
         <v>308</v>
       </c>
@@ -57772,29 +57767,29 @@
       <c r="N175" s="12"/>
     </row>
     <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="110" t="s">
+      <c r="A177" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="110"/>
-      <c r="C177" s="110"/>
-      <c r="D177" s="111" t="s">
+      <c r="B177" s="116"/>
+      <c r="C177" s="116"/>
+      <c r="D177" s="117" t="s">
         <v>48</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
       <c r="G177" s="24"/>
-      <c r="H177" s="55" t="s">
+      <c r="H177" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="I177" s="55"/>
-      <c r="J177" s="55" t="s">
+      <c r="I177" s="85"/>
+      <c r="J177" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="K177" s="55"/>
-      <c r="L177" s="55" t="s">
+      <c r="K177" s="85"/>
+      <c r="L177" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="M177" s="55"/>
+      <c r="M177" s="85"/>
     </row>
     <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="24" t="s">
@@ -57806,22 +57801,22 @@
       <c r="C178" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D178" s="110"/>
+      <c r="D178" s="116"/>
       <c r="E178" s="17"/>
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
-      <c r="H178" s="55" t="s">
+      <c r="H178" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I178" s="55"/>
-      <c r="J178" s="55" t="s">
+      <c r="I178" s="85"/>
+      <c r="J178" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="K178" s="55"/>
-      <c r="L178" s="55" t="s">
+      <c r="K178" s="85"/>
+      <c r="L178" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M178" s="55"/>
+      <c r="M178" s="85"/>
     </row>
     <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18"/>
@@ -57851,22 +57846,22 @@
       </c>
     </row>
     <row r="180" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="56" t="s">
+      <c r="A180" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="B180" s="56" t="s">
+      <c r="B180" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="C180" s="56" t="s">
+      <c r="C180" s="82" t="s">
         <v>324</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="E180" s="56" t="s">
+      <c r="E180" s="82" t="s">
         <v>326</v>
       </c>
-      <c r="F180" s="59" t="s">
+      <c r="F180" s="63" t="s">
         <v>327</v>
       </c>
       <c r="G180" s="25" t="s">
@@ -57882,14 +57877,14 @@
       <c r="M180" s="29"/>
     </row>
     <row r="181" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="57"/>
-      <c r="B181" s="57"/>
-      <c r="C181" s="57"/>
+      <c r="A181" s="67"/>
+      <c r="B181" s="67"/>
+      <c r="C181" s="67"/>
       <c r="D181" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E181" s="57"/>
-      <c r="F181" s="60"/>
+      <c r="E181" s="67"/>
+      <c r="F181" s="94"/>
       <c r="G181" s="23" t="s">
         <v>330</v>
       </c>
@@ -57898,15 +57893,15 @@
       <c r="J181" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="K181" s="119" t="s">
+      <c r="K181" s="52" t="s">
         <v>513</v>
       </c>
       <c r="L181" s="16"/>
       <c r="M181" s="29"/>
     </row>
     <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="57"/>
-      <c r="B182" s="59" t="s">
+      <c r="A182" s="67"/>
+      <c r="B182" s="63" t="s">
         <v>331</v>
       </c>
       <c r="C182" s="22" t="s">
@@ -57915,8 +57910,8 @@
       <c r="D182" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="E182" s="57"/>
-      <c r="F182" s="60"/>
+      <c r="E182" s="67"/>
+      <c r="F182" s="94"/>
       <c r="G182" s="23" t="s">
         <v>334</v>
       </c>
@@ -57930,16 +57925,16 @@
       <c r="M182" s="29"/>
     </row>
     <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="57"/>
-      <c r="B183" s="60"/>
+      <c r="A183" s="67"/>
+      <c r="B183" s="94"/>
       <c r="C183" s="23" t="s">
         <v>335</v>
       </c>
       <c r="D183" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="E183" s="58"/>
-      <c r="F183" s="61"/>
+      <c r="E183" s="68"/>
+      <c r="F183" s="95"/>
       <c r="G183" s="23" t="s">
         <v>337</v>
       </c>
@@ -57953,22 +57948,22 @@
       <c r="M183" s="29"/>
     </row>
     <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="56" t="s">
+      <c r="A184" s="82" t="s">
         <v>472</v>
       </c>
-      <c r="B184" s="67" t="s">
+      <c r="B184" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="C184" s="67" t="s">
+      <c r="C184" s="56" t="s">
         <v>474</v>
       </c>
       <c r="D184" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="E184" s="56" t="s">
+      <c r="E184" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="F184" s="77" t="s">
+      <c r="F184" s="59" t="s">
         <v>492</v>
       </c>
       <c r="G184" s="23" t="s">
@@ -57982,14 +57977,14 @@
       <c r="M184" s="29"/>
     </row>
     <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="57"/>
-      <c r="B185" s="68"/>
-      <c r="C185" s="69"/>
+      <c r="A185" s="67"/>
+      <c r="B185" s="64"/>
+      <c r="C185" s="65"/>
       <c r="D185" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="E185" s="62"/>
-      <c r="F185" s="78"/>
+      <c r="E185" s="103"/>
+      <c r="F185" s="97"/>
       <c r="G185" s="22" t="s">
         <v>494</v>
       </c>
@@ -58001,35 +57996,35 @@
       <c r="M185" s="29"/>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="57"/>
-      <c r="B186" s="68"/>
-      <c r="C186" s="70" t="s">
+      <c r="A186" s="67"/>
+      <c r="B186" s="64"/>
+      <c r="C186" s="54" t="s">
         <v>481</v>
       </c>
       <c r="D186" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="E186" s="62"/>
-      <c r="F186" s="78"/>
+      <c r="E186" s="103"/>
+      <c r="F186" s="97"/>
       <c r="G186" s="23" t="s">
         <v>495</v>
       </c>
       <c r="H186" s="16"/>
       <c r="I186" s="16"/>
-      <c r="J186" s="16"/>
-      <c r="K186" s="29"/>
+      <c r="J186" s="23"/>
+      <c r="K186" s="46"/>
       <c r="L186" s="16"/>
       <c r="M186" s="29"/>
     </row>
     <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="57"/>
-      <c r="B187" s="68"/>
-      <c r="C187" s="63"/>
+      <c r="A187" s="67"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="55"/>
       <c r="D187" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="E187" s="62"/>
-      <c r="F187" s="78"/>
+      <c r="E187" s="103"/>
+      <c r="F187" s="97"/>
       <c r="G187" s="23" t="s">
         <v>496</v>
       </c>
@@ -58041,16 +58036,16 @@
       <c r="M187" s="29"/>
     </row>
     <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="57"/>
-      <c r="B188" s="68"/>
-      <c r="C188" s="67" t="s">
+      <c r="A188" s="67"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="56" t="s">
         <v>477</v>
       </c>
       <c r="D188" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="E188" s="62"/>
-      <c r="F188" s="78"/>
+      <c r="E188" s="103"/>
+      <c r="F188" s="97"/>
       <c r="G188" s="23" t="s">
         <v>497</v>
       </c>
@@ -58062,14 +58057,14 @@
       <c r="M188" s="29"/>
     </row>
     <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="57"/>
-      <c r="B189" s="68"/>
-      <c r="C189" s="69"/>
+      <c r="A189" s="67"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="65"/>
       <c r="D189" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="E189" s="62"/>
-      <c r="F189" s="78"/>
+      <c r="E189" s="103"/>
+      <c r="F189" s="97"/>
       <c r="G189" s="23" t="s">
         <v>498</v>
       </c>
@@ -58081,16 +58076,16 @@
       <c r="M189" s="29"/>
     </row>
     <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="57"/>
-      <c r="B190" s="68"/>
-      <c r="C190" s="67" t="s">
+      <c r="A190" s="67"/>
+      <c r="B190" s="64"/>
+      <c r="C190" s="56" t="s">
         <v>480</v>
       </c>
       <c r="D190" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="E190" s="62"/>
-      <c r="F190" s="78"/>
+      <c r="E190" s="103"/>
+      <c r="F190" s="97"/>
       <c r="G190" s="23" t="s">
         <v>499</v>
       </c>
@@ -58102,14 +58097,14 @@
       <c r="M190" s="29"/>
     </row>
     <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="57"/>
-      <c r="B191" s="68"/>
-      <c r="C191" s="68"/>
+      <c r="A191" s="67"/>
+      <c r="B191" s="64"/>
+      <c r="C191" s="64"/>
       <c r="D191" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="E191" s="62"/>
-      <c r="F191" s="78"/>
+      <c r="E191" s="103"/>
+      <c r="F191" s="97"/>
       <c r="G191" s="23" t="s">
         <v>500</v>
       </c>
@@ -58121,115 +58116,115 @@
       <c r="M191" s="29"/>
     </row>
     <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="57"/>
-      <c r="B192" s="68"/>
-      <c r="C192" s="69"/>
+      <c r="A192" s="67"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="65"/>
       <c r="D192" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="E192" s="62"/>
-      <c r="F192" s="78"/>
+      <c r="E192" s="103"/>
+      <c r="F192" s="97"/>
       <c r="G192" s="23" t="s">
         <v>501</v>
       </c>
       <c r="H192" s="16"/>
       <c r="I192" s="16"/>
-      <c r="J192" s="16"/>
+      <c r="J192" s="23"/>
       <c r="K192" s="29"/>
       <c r="L192" s="16"/>
       <c r="M192" s="29"/>
     </row>
     <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="58"/>
-      <c r="B193" s="69"/>
+      <c r="A193" s="68"/>
+      <c r="B193" s="65"/>
       <c r="C193" s="49" t="s">
         <v>487</v>
       </c>
       <c r="D193" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="E193" s="63"/>
-      <c r="F193" s="79"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="98"/>
       <c r="G193" s="23" t="s">
         <v>502</v>
       </c>
       <c r="H193" s="16"/>
       <c r="I193" s="16"/>
-      <c r="J193" s="16"/>
-      <c r="K193" s="29"/>
+      <c r="J193" s="22"/>
+      <c r="K193" s="46"/>
       <c r="L193" s="16"/>
       <c r="M193" s="29"/>
     </row>
     <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="71" t="s">
+      <c r="A194" s="107" t="s">
         <v>489</v>
       </c>
-      <c r="B194" s="72"/>
-      <c r="C194" s="72"/>
-      <c r="D194" s="72"/>
-      <c r="E194" s="72"/>
-      <c r="F194" s="72"/>
-      <c r="G194" s="72"/>
-      <c r="H194" s="72"/>
-      <c r="I194" s="72"/>
-      <c r="J194" s="72"/>
-      <c r="K194" s="72"/>
-      <c r="L194" s="72"/>
-      <c r="M194" s="73"/>
+      <c r="B194" s="108"/>
+      <c r="C194" s="108"/>
+      <c r="D194" s="108"/>
+      <c r="E194" s="108"/>
+      <c r="F194" s="108"/>
+      <c r="G194" s="108"/>
+      <c r="H194" s="108"/>
+      <c r="I194" s="108"/>
+      <c r="J194" s="108"/>
+      <c r="K194" s="108"/>
+      <c r="L194" s="108"/>
+      <c r="M194" s="109"/>
     </row>
     <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="74"/>
-      <c r="B195" s="75"/>
-      <c r="C195" s="75"/>
-      <c r="D195" s="75"/>
-      <c r="E195" s="75"/>
-      <c r="F195" s="75"/>
-      <c r="G195" s="75"/>
-      <c r="H195" s="75"/>
-      <c r="I195" s="75"/>
-      <c r="J195" s="75"/>
-      <c r="K195" s="75"/>
-      <c r="L195" s="75"/>
-      <c r="M195" s="76"/>
+      <c r="A195" s="110"/>
+      <c r="B195" s="111"/>
+      <c r="C195" s="111"/>
+      <c r="D195" s="111"/>
+      <c r="E195" s="111"/>
+      <c r="F195" s="111"/>
+      <c r="G195" s="111"/>
+      <c r="H195" s="111"/>
+      <c r="I195" s="111"/>
+      <c r="J195" s="111"/>
+      <c r="K195" s="111"/>
+      <c r="L195" s="111"/>
+      <c r="M195" s="112"/>
     </row>
     <row r="196" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="52"/>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
-      <c r="F196" s="53"/>
-      <c r="G196" s="54"/>
-      <c r="H196" s="55" t="s">
+      <c r="A196" s="78"/>
+      <c r="B196" s="79"/>
+      <c r="C196" s="79"/>
+      <c r="D196" s="79"/>
+      <c r="E196" s="79"/>
+      <c r="F196" s="79"/>
+      <c r="G196" s="80"/>
+      <c r="H196" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I196" s="55"/>
-      <c r="J196" s="55" t="s">
+      <c r="I196" s="85"/>
+      <c r="J196" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K196" s="55"/>
-      <c r="L196" s="55" t="s">
+      <c r="K196" s="85"/>
+      <c r="L196" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M196" s="55"/>
+      <c r="M196" s="85"/>
     </row>
     <row r="197" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="80" t="s">
+      <c r="A197" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="B197" s="56" t="s">
+      <c r="B197" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C197" s="56" t="s">
+      <c r="C197" s="82" t="s">
         <v>158</v>
       </c>
       <c r="D197" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E197" s="56" t="s">
+      <c r="E197" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="F197" s="59" t="s">
+      <c r="F197" s="63" t="s">
         <v>471</v>
       </c>
       <c r="G197" s="35" t="s">
@@ -58245,14 +58240,14 @@
       <c r="M197" s="29"/>
     </row>
     <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="81"/>
-      <c r="B198" s="57"/>
-      <c r="C198" s="57"/>
+      <c r="A198" s="114"/>
+      <c r="B198" s="67"/>
+      <c r="C198" s="67"/>
       <c r="D198" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="E198" s="62"/>
-      <c r="F198" s="62"/>
+      <c r="E198" s="103"/>
+      <c r="F198" s="103"/>
       <c r="G198" s="23" t="s">
         <v>341</v>
       </c>
@@ -58266,14 +58261,14 @@
       <c r="M198" s="29"/>
     </row>
     <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="81"/>
-      <c r="B199" s="57"/>
-      <c r="C199" s="57"/>
+      <c r="A199" s="114"/>
+      <c r="B199" s="67"/>
+      <c r="C199" s="67"/>
       <c r="D199" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E199" s="62"/>
-      <c r="F199" s="62"/>
+      <c r="E199" s="103"/>
+      <c r="F199" s="103"/>
       <c r="G199" s="23" t="s">
         <v>173</v>
       </c>
@@ -58287,14 +58282,14 @@
       <c r="M199" s="29"/>
     </row>
     <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="81"/>
-      <c r="B200" s="57"/>
-      <c r="C200" s="58"/>
+      <c r="A200" s="114"/>
+      <c r="B200" s="67"/>
+      <c r="C200" s="68"/>
       <c r="D200" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="E200" s="62"/>
-      <c r="F200" s="62"/>
+      <c r="E200" s="103"/>
+      <c r="F200" s="103"/>
       <c r="G200" s="23" t="s">
         <v>343</v>
       </c>
@@ -58308,16 +58303,16 @@
       <c r="M200" s="29"/>
     </row>
     <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="81"/>
-      <c r="B201" s="57"/>
-      <c r="C201" s="56" t="s">
+      <c r="A201" s="114"/>
+      <c r="B201" s="67"/>
+      <c r="C201" s="82" t="s">
         <v>176</v>
       </c>
       <c r="D201" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E201" s="62"/>
-      <c r="F201" s="62"/>
+      <c r="E201" s="103"/>
+      <c r="F201" s="103"/>
       <c r="G201" s="23" t="s">
         <v>345</v>
       </c>
@@ -58331,14 +58326,14 @@
       <c r="M201" s="29"/>
     </row>
     <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="81"/>
-      <c r="B202" s="58"/>
-      <c r="C202" s="58"/>
+      <c r="A202" s="114"/>
+      <c r="B202" s="68"/>
+      <c r="C202" s="68"/>
       <c r="D202" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E202" s="62"/>
-      <c r="F202" s="62"/>
+      <c r="E202" s="103"/>
+      <c r="F202" s="103"/>
       <c r="G202" s="23" t="s">
         <v>346</v>
       </c>
@@ -58352,7 +58347,7 @@
       <c r="M202" s="29"/>
     </row>
     <row r="203" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="82"/>
+      <c r="A203" s="115"/>
       <c r="B203" s="26" t="s">
         <v>187</v>
       </c>
@@ -58362,8 +58357,8 @@
       <c r="D203" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E203" s="63"/>
-      <c r="F203" s="63"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="55"/>
       <c r="G203" s="25" t="s">
         <v>190</v>
       </c>
@@ -58377,19 +58372,19 @@
       <c r="M203" s="29"/>
     </row>
     <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="56" t="s">
+      <c r="A204" s="82" t="s">
         <v>277</v>
       </c>
-      <c r="B204" s="56" t="s">
+      <c r="B204" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="C204" s="56" t="s">
+      <c r="C204" s="82" t="s">
         <v>310</v>
       </c>
       <c r="D204" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="E204" s="64" t="s">
+      <c r="E204" s="104" t="s">
         <v>347</v>
       </c>
       <c r="F204" s="45" t="s">
@@ -58406,13 +58401,13 @@
       <c r="M204" s="29"/>
     </row>
     <row r="205" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="57"/>
-      <c r="B205" s="57"/>
-      <c r="C205" s="58"/>
+      <c r="A205" s="67"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="68"/>
       <c r="D205" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E205" s="65"/>
+      <c r="E205" s="105"/>
       <c r="F205" s="48" t="s">
         <v>323</v>
       </c>
@@ -58427,15 +58422,15 @@
       <c r="M205" s="29"/>
     </row>
     <row r="206" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="57"/>
-      <c r="B206" s="57"/>
+      <c r="A206" s="67"/>
+      <c r="B206" s="67"/>
       <c r="C206" s="26" t="s">
         <v>309</v>
       </c>
       <c r="D206" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E206" s="65"/>
+      <c r="E206" s="105"/>
       <c r="F206" s="47" t="s">
         <v>317</v>
       </c>
@@ -58450,15 +58445,15 @@
       <c r="M206" s="29"/>
     </row>
     <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="58"/>
-      <c r="B207" s="58"/>
+      <c r="A207" s="68"/>
+      <c r="B207" s="68"/>
       <c r="C207" s="27" t="s">
         <v>319</v>
       </c>
       <c r="D207" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="E207" s="66"/>
+      <c r="E207" s="106"/>
       <c r="F207" s="46" t="s">
         <v>321</v>
       </c>
@@ -58626,36 +58621,86 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="A17:A58"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F17:F58"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B27:B53"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="A196:G196"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="L196:M196"/>
+    <mergeCell ref="E180:E183"/>
+    <mergeCell ref="F180:F183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A160:A173"/>
+    <mergeCell ref="B160:B173"/>
+    <mergeCell ref="C160:C173"/>
+    <mergeCell ref="E160:E173"/>
+    <mergeCell ref="F160:F173"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E197:E203"/>
+    <mergeCell ref="E204:E207"/>
+    <mergeCell ref="F197:F203"/>
+    <mergeCell ref="B184:B193"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A194:M195"/>
+    <mergeCell ref="E184:E193"/>
+    <mergeCell ref="F184:F193"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="A197:A203"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="A184:A193"/>
+    <mergeCell ref="A122:A158"/>
+    <mergeCell ref="B122:B158"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="C135:C148"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="A104:A120"/>
+    <mergeCell ref="B104:B114"/>
+    <mergeCell ref="C104:C114"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="A59:A82"/>
+    <mergeCell ref="A84:A103"/>
+    <mergeCell ref="B84:B96"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="B64:B76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="E84:E120"/>
+    <mergeCell ref="E17:E82"/>
+    <mergeCell ref="E122:E158"/>
+    <mergeCell ref="F122:F158"/>
+    <mergeCell ref="F59:F82"/>
+    <mergeCell ref="F84:F91"/>
+    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="F105:F120"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="L1:M1"/>
@@ -58680,86 +58725,36 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E122:E158"/>
-    <mergeCell ref="F122:F158"/>
-    <mergeCell ref="F59:F82"/>
-    <mergeCell ref="F84:F91"/>
-    <mergeCell ref="F92:F96"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="F105:F120"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A59:A82"/>
-    <mergeCell ref="A84:A103"/>
-    <mergeCell ref="B84:B96"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="B64:B76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="E84:E120"/>
-    <mergeCell ref="E17:E82"/>
-    <mergeCell ref="A122:A158"/>
-    <mergeCell ref="B122:B158"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="C135:C148"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="A104:A120"/>
-    <mergeCell ref="B104:B114"/>
-    <mergeCell ref="C104:C114"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="E197:E203"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="F197:F203"/>
-    <mergeCell ref="B184:B193"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A194:M195"/>
-    <mergeCell ref="E184:E193"/>
-    <mergeCell ref="F184:F193"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="A197:A203"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="C197:C200"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="A184:A193"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="A196:G196"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="L196:M196"/>
-    <mergeCell ref="E180:E183"/>
-    <mergeCell ref="F180:F183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A160:A173"/>
-    <mergeCell ref="B160:B173"/>
-    <mergeCell ref="C160:C173"/>
-    <mergeCell ref="E160:E173"/>
-    <mergeCell ref="F160:F173"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="A17:A58"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F17:F58"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B27:B53"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58785,37 +58780,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="114" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="118" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
+      <c r="A2" s="119"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -58825,12 +58820,12 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">

--- a/6. 1조 테스트시나리오/1조 PerfectSolution 통합테스트 시나리오 - 형준.xlsx
+++ b/6. 1조 테스트시나리오/1조 PerfectSolution 통합테스트 시나리오 - 형준.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\funfun\6. 1조 테스트시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53755,119 +53755,29 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -53876,36 +53786,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -53929,17 +53833,125 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -53952,18 +53964,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -54271,35 +54271,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="55"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -54311,31 +54311,31 @@
       <c r="C2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="55" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="85"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="33" t="s">
         <v>128</v>
       </c>
@@ -54356,22 +54356,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="81" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="59" t="s">
         <v>505</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -54387,14 +54387,14 @@
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="35" t="s">
         <v>120</v>
       </c>
@@ -54408,14 +54408,14 @@
       <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="90"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="35" t="s">
         <v>119</v>
       </c>
@@ -54424,19 +54424,19 @@
       <c r="J6" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="K6" s="119"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="16"/>
       <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="34" t="s">
         <v>121</v>
       </c>
@@ -54445,21 +54445,21 @@
       <c r="J7" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="K7" s="119" t="s">
+      <c r="K7" s="52" t="s">
         <v>515</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="35" t="s">
         <v>122</v>
       </c>
@@ -54473,60 +54473,60 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="82" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="77" t="s">
+      <c r="E9" s="67"/>
+      <c r="F9" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="67" t="s">
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="120"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="121"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="56" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="82" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="77" t="s">
+      <c r="E11" s="67"/>
+      <c r="F11" s="59" t="s">
         <v>271</v>
       </c>
       <c r="G11" s="34" t="s">
@@ -54542,14 +54542,14 @@
       <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="90"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="43" t="s">
         <v>273</v>
       </c>
@@ -54563,14 +54563,14 @@
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="90"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="36" t="s">
         <v>274</v>
       </c>
@@ -54579,21 +54579,21 @@
       <c r="J13" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="K13" s="122" t="s">
+      <c r="K13" s="53" t="s">
         <v>511</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="90"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="36" t="s">
         <v>275</v>
       </c>
@@ -54607,14 +54607,14 @@
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="91"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="36" t="s">
         <v>276</v>
       </c>
@@ -54628,43 +54628,43 @@
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55" t="s">
+      <c r="I16" s="85"/>
+      <c r="J16" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55" t="s">
+      <c r="K16" s="85"/>
+      <c r="L16" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M16" s="55"/>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="62" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="71" t="s">
         <v>491</v>
       </c>
       <c r="G17" s="36" t="s">
@@ -54678,14 +54678,14 @@
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="104"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="34" t="s">
         <v>350</v>
       </c>
@@ -54697,14 +54697,14 @@
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="104"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="34" t="s">
         <v>351</v>
       </c>
@@ -54716,16 +54716,16 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="102" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="62" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="104"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="35" t="s">
         <v>356</v>
       </c>
@@ -54737,14 +54737,14 @@
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="102"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="104"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="34" t="s">
         <v>352</v>
       </c>
@@ -54756,14 +54756,14 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="104"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="34" t="s">
         <v>353</v>
       </c>
@@ -54775,14 +54775,14 @@
       <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="102"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="104"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="34" t="s">
         <v>354</v>
       </c>
@@ -54794,14 +54794,14 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="102"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="104"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="34" t="s">
         <v>355</v>
       </c>
@@ -54813,14 +54813,14 @@
       <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="104"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="34" t="s">
         <v>357</v>
       </c>
@@ -54832,14 +54832,14 @@
       <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="102"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="104"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="36" t="s">
         <v>358</v>
       </c>
@@ -54851,18 +54851,18 @@
       <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="81" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="104"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="34" t="s">
         <v>359</v>
       </c>
@@ -54874,14 +54874,14 @@
       <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="112"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="104"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="34" t="s">
         <v>360</v>
       </c>
@@ -54893,14 +54893,14 @@
       <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="112"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="104"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="34" t="s">
         <v>361</v>
       </c>
@@ -54912,14 +54912,14 @@
       <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="112"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="104"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="34" t="s">
         <v>362</v>
       </c>
@@ -54931,14 +54931,14 @@
       <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="112"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="104"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="72"/>
       <c r="G31" s="34" t="s">
         <v>363</v>
       </c>
@@ -54950,14 +54950,14 @@
       <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="112"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="104"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="34" t="s">
         <v>364</v>
       </c>
@@ -54969,16 +54969,16 @@
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="56" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="82" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="104"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="34" t="s">
         <v>365</v>
       </c>
@@ -54990,14 +54990,14 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="57"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="104"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="34" t="s">
         <v>366</v>
       </c>
@@ -55009,14 +55009,14 @@
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="104"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="34" t="s">
         <v>367</v>
       </c>
@@ -55028,16 +55028,16 @@
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="112" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="81" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="104"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="34" t="s">
         <v>368</v>
       </c>
@@ -55049,14 +55049,14 @@
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="112"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="104"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="34" t="s">
         <v>369</v>
       </c>
@@ -55068,14 +55068,14 @@
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="112"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="104"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="72"/>
       <c r="G38" s="34" t="s">
         <v>371</v>
       </c>
@@ -55087,14 +55087,14 @@
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="112"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="104"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="72"/>
       <c r="G39" s="34" t="s">
         <v>372</v>
       </c>
@@ -55106,14 +55106,14 @@
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="112"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="104"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="72"/>
       <c r="G40" s="35" t="s">
         <v>373</v>
       </c>
@@ -55125,14 +55125,14 @@
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="112"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="104"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="72"/>
       <c r="G41" s="34" t="s">
         <v>374</v>
       </c>
@@ -55144,16 +55144,16 @@
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="112" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="81" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="104"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="34" t="s">
         <v>375</v>
       </c>
@@ -55165,14 +55165,14 @@
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="112"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="104"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="35" t="s">
         <v>376</v>
       </c>
@@ -55184,14 +55184,14 @@
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="112"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="104"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="72"/>
       <c r="G44" s="34" t="s">
         <v>377</v>
       </c>
@@ -55203,14 +55203,14 @@
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="112"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="104"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="72"/>
       <c r="G45" s="34" t="s">
         <v>378</v>
       </c>
@@ -55222,14 +55222,14 @@
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="112"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="104"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="72"/>
       <c r="G46" s="36" t="s">
         <v>379</v>
       </c>
@@ -55241,14 +55241,14 @@
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="112"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="104"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="72"/>
       <c r="G47" s="34" t="s">
         <v>380</v>
       </c>
@@ -55260,14 +55260,14 @@
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="112"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="104"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="72"/>
       <c r="G48" s="34" t="s">
         <v>381</v>
       </c>
@@ -55279,14 +55279,14 @@
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="112"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="104"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="72"/>
       <c r="G49" s="34" t="s">
         <v>382</v>
       </c>
@@ -55298,14 +55298,14 @@
       <c r="M49" s="29"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="112"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="104"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="72"/>
       <c r="G50" s="34" t="s">
         <v>383</v>
       </c>
@@ -55317,14 +55317,14 @@
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="112"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="104"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="72"/>
       <c r="G51" s="34" t="s">
         <v>384</v>
       </c>
@@ -55336,16 +55336,16 @@
       <c r="M51" s="29"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62" t="s">
         <v>94</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="104"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="72"/>
       <c r="G52" s="37" t="s">
         <v>385</v>
       </c>
@@ -55357,14 +55357,14 @@
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="104"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="72"/>
       <c r="G53" s="34" t="s">
         <v>386</v>
       </c>
@@ -55376,18 +55376,18 @@
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
-      <c r="B54" s="59" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="56" t="s">
         <v>101</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="104"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="72"/>
       <c r="G54" s="37" t="s">
         <v>435</v>
       </c>
@@ -55399,14 +55399,14 @@
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="57"/>
-      <c r="F55" s="104"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="72"/>
       <c r="G55" s="34" t="s">
         <v>436</v>
       </c>
@@ -55418,14 +55418,14 @@
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="57"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="57"/>
-      <c r="F56" s="104"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="72"/>
       <c r="G56" s="34" t="s">
         <v>437</v>
       </c>
@@ -55437,14 +55437,14 @@
       <c r="M56" s="29"/>
     </row>
     <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="57"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="57"/>
-      <c r="F57" s="104"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="72"/>
       <c r="G57" s="34" t="s">
         <v>438</v>
       </c>
@@ -55456,14 +55456,14 @@
       <c r="M57" s="29"/>
     </row>
     <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="57"/>
-      <c r="F58" s="105"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="73"/>
       <c r="G58" s="34" t="s">
         <v>439</v>
       </c>
@@ -55475,20 +55475,20 @@
       <c r="M58" s="29"/>
     </row>
     <row r="59" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="56" t="s">
         <v>109</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="57"/>
-      <c r="F59" s="77" t="s">
+      <c r="E59" s="67"/>
+      <c r="F59" s="59" t="s">
         <v>464</v>
       </c>
       <c r="G59" s="25" t="s">
@@ -55502,14 +55502,14 @@
       <c r="M59" s="29"/>
     </row>
     <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="57"/>
-      <c r="F60" s="90"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="60"/>
       <c r="G60" s="34" t="s">
         <v>441</v>
       </c>
@@ -55521,14 +55521,14 @@
       <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="90"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="34" t="s">
         <v>442</v>
       </c>
@@ -55540,14 +55540,14 @@
       <c r="M61" s="29"/>
     </row>
     <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="57"/>
-      <c r="F62" s="90"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="34" t="s">
         <v>443</v>
       </c>
@@ -55559,14 +55559,14 @@
       <c r="M62" s="29"/>
     </row>
     <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="57"/>
-      <c r="F63" s="90"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="34" t="s">
         <v>444</v>
       </c>
@@ -55578,18 +55578,18 @@
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
-      <c r="B64" s="56" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="82" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="57"/>
-      <c r="F64" s="90"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="60"/>
       <c r="G64" s="34" t="s">
         <v>445</v>
       </c>
@@ -55601,14 +55601,14 @@
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="57"/>
-      <c r="F65" s="90"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="60"/>
       <c r="G65" s="34" t="s">
         <v>446</v>
       </c>
@@ -55620,14 +55620,14 @@
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E66" s="57"/>
-      <c r="F66" s="90"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="34" t="s">
         <v>447</v>
       </c>
@@ -55639,14 +55639,14 @@
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="57"/>
-      <c r="F67" s="90"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="60"/>
       <c r="G67" s="37" t="s">
         <v>448</v>
       </c>
@@ -55658,14 +55658,14 @@
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="68"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E68" s="57"/>
-      <c r="F68" s="90"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="60"/>
       <c r="G68" s="34" t="s">
         <v>449</v>
       </c>
@@ -55677,14 +55677,14 @@
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="68"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E69" s="57"/>
-      <c r="F69" s="90"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="60"/>
       <c r="G69" s="34" t="s">
         <v>450</v>
       </c>
@@ -55696,16 +55696,16 @@
       <c r="M69" s="29"/>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="88" t="s">
+      <c r="A70" s="64"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="66" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="57"/>
-      <c r="F70" s="90"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="34" t="s">
         <v>451</v>
       </c>
@@ -55717,14 +55717,14 @@
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="68"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="57"/>
-      <c r="F71" s="90"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="60"/>
       <c r="G71" s="23" t="s">
         <v>452</v>
       </c>
@@ -55736,14 +55736,14 @@
       <c r="M71" s="29"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="68"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="57"/>
-      <c r="F72" s="90"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="60"/>
       <c r="G72" s="23" t="s">
         <v>453</v>
       </c>
@@ -55755,14 +55755,14 @@
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="68"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="57"/>
-      <c r="F73" s="90"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="60"/>
       <c r="G73" s="22" t="s">
         <v>454</v>
       </c>
@@ -55774,14 +55774,14 @@
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E74" s="57"/>
-      <c r="F74" s="90"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="23" t="s">
         <v>455</v>
       </c>
@@ -55793,14 +55793,14 @@
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="68"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="57"/>
-      <c r="F75" s="90"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="60"/>
       <c r="G75" s="23" t="s">
         <v>456</v>
       </c>
@@ -55812,14 +55812,14 @@
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="68"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E76" s="57"/>
-      <c r="F76" s="90"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="23" t="s">
         <v>457</v>
       </c>
@@ -55831,18 +55831,18 @@
       <c r="M76" s="29"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="68"/>
-      <c r="B77" s="56" t="s">
+      <c r="A77" s="64"/>
+      <c r="B77" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="82" t="s">
         <v>150</v>
       </c>
       <c r="D77" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E77" s="57"/>
-      <c r="F77" s="90"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="60"/>
       <c r="G77" s="23" t="s">
         <v>458</v>
       </c>
@@ -55854,14 +55854,14 @@
       <c r="M77" s="29"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="68"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="57"/>
-      <c r="F78" s="90"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="60"/>
       <c r="G78" s="23" t="s">
         <v>459</v>
       </c>
@@ -55873,14 +55873,14 @@
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E79" s="57"/>
-      <c r="F79" s="90"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="23" t="s">
         <v>460</v>
       </c>
@@ -55892,14 +55892,14 @@
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="68"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E80" s="57"/>
-      <c r="F80" s="90"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="23" t="s">
         <v>461</v>
       </c>
@@ -55911,14 +55911,14 @@
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="68"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="90"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="60"/>
       <c r="G81" s="23" t="s">
         <v>462</v>
       </c>
@@ -55930,14 +55930,14 @@
       <c r="M81" s="29"/>
     </row>
     <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="69"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="68"/>
       <c r="D82" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E82" s="58"/>
-      <c r="F82" s="91"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="23" t="s">
         <v>463</v>
       </c>
@@ -55949,43 +55949,43 @@
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="55" t="s">
+      <c r="A83" s="78"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55" t="s">
+      <c r="I83" s="85"/>
+      <c r="J83" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55" t="s">
+      <c r="K83" s="85"/>
+      <c r="L83" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M83" s="55"/>
+      <c r="M83" s="85"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="C84" s="82" t="s">
         <v>158</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="92" t="s">
+      <c r="F84" s="96" t="s">
         <v>466</v>
       </c>
       <c r="G84" s="34" t="s">
@@ -55999,14 +55999,14 @@
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
       <c r="D85" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E85" s="57"/>
-      <c r="F85" s="92"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="96"/>
       <c r="G85" s="35" t="s">
         <v>163</v>
       </c>
@@ -56018,14 +56018,14 @@
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E86" s="57"/>
-      <c r="F86" s="92"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="96"/>
       <c r="G86" s="34" t="s">
         <v>165</v>
       </c>
@@ -56037,14 +56037,14 @@
       <c r="M86" s="29"/>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E87" s="57"/>
-      <c r="F87" s="92"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="96"/>
       <c r="G87" s="34" t="s">
         <v>167</v>
       </c>
@@ -56056,14 +56056,14 @@
       <c r="M87" s="29"/>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E88" s="57"/>
-      <c r="F88" s="92"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="96"/>
       <c r="G88" s="34" t="s">
         <v>169</v>
       </c>
@@ -56075,14 +56075,14 @@
       <c r="M88" s="29"/>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E89" s="57"/>
-      <c r="F89" s="92"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="96"/>
       <c r="G89" s="39" t="s">
         <v>171</v>
       </c>
@@ -56094,14 +56094,14 @@
       <c r="M89" s="29"/>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="57"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="92"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="96"/>
       <c r="G90" s="39" t="s">
         <v>173</v>
       </c>
@@ -56113,14 +56113,14 @@
       <c r="M90" s="29"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="58"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="68"/>
       <c r="D91" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="92"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="96"/>
       <c r="G91" s="23" t="s">
         <v>175</v>
       </c>
@@ -56132,16 +56132,16 @@
       <c r="M91" s="29"/>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="56" t="s">
+      <c r="A92" s="67"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="82" t="s">
         <v>176</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="93" t="s">
+      <c r="E92" s="67"/>
+      <c r="F92" s="84" t="s">
         <v>467</v>
       </c>
       <c r="G92" s="23" t="s">
@@ -56155,14 +56155,14 @@
       <c r="M92" s="29"/>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E93" s="57"/>
-      <c r="F93" s="93"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="84"/>
       <c r="G93" s="23" t="s">
         <v>180</v>
       </c>
@@ -56174,14 +56174,14 @@
       <c r="M93" s="29"/>
     </row>
     <row r="94" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="57"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
       <c r="D94" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="57"/>
-      <c r="F94" s="93"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="84"/>
       <c r="G94" s="23" t="s">
         <v>182</v>
       </c>
@@ -56193,14 +56193,14 @@
       <c r="M94" s="29"/>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="57"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
       <c r="D95" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E95" s="57"/>
-      <c r="F95" s="93"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="84"/>
       <c r="G95" s="23" t="s">
         <v>184</v>
       </c>
@@ -56212,14 +56212,14 @@
       <c r="M95" s="29"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="57"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
       <c r="D96" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E96" s="57"/>
-      <c r="F96" s="93"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="84"/>
       <c r="G96" s="23" t="s">
         <v>186</v>
       </c>
@@ -56231,18 +56231,18 @@
       <c r="M96" s="29"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="57"/>
-      <c r="B97" s="56" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="82" t="s">
         <v>188</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E97" s="57"/>
-      <c r="F97" s="93" t="s">
+      <c r="E97" s="67"/>
+      <c r="F97" s="84" t="s">
         <v>468</v>
       </c>
       <c r="G97" s="25" t="s">
@@ -56256,14 +56256,14 @@
       <c r="M97" s="29"/>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E98" s="57"/>
-      <c r="F98" s="93"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="84"/>
       <c r="G98" s="23" t="s">
         <v>192</v>
       </c>
@@ -56275,14 +56275,14 @@
       <c r="M98" s="29"/>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
       <c r="D99" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="E99" s="57"/>
-      <c r="F99" s="93"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="84"/>
       <c r="G99" s="23" t="s">
         <v>194</v>
       </c>
@@ -56294,14 +56294,14 @@
       <c r="M99" s="29"/>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
       <c r="D100" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="E100" s="57"/>
-      <c r="F100" s="93"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="84"/>
       <c r="G100" s="35" t="s">
         <v>196</v>
       </c>
@@ -56313,14 +56313,14 @@
       <c r="M100" s="29"/>
     </row>
     <row r="101" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
+      <c r="A101" s="67"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
       <c r="D101" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="E101" s="57"/>
-      <c r="F101" s="93"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="84"/>
       <c r="G101" s="25" t="s">
         <v>198</v>
       </c>
@@ -56332,14 +56332,14 @@
       <c r="M101" s="29"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
       <c r="D102" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="57"/>
-      <c r="F102" s="93"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="84"/>
       <c r="G102" s="25" t="s">
         <v>200</v>
       </c>
@@ -56351,14 +56351,14 @@
       <c r="M102" s="29"/>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="58"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
       <c r="D103" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E103" s="57"/>
-      <c r="F103" s="93"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="84"/>
       <c r="G103" s="23" t="s">
         <v>202</v>
       </c>
@@ -56370,19 +56370,19 @@
       <c r="M103" s="29"/>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="67" t="s">
+      <c r="A104" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="B104" s="67" t="s">
+      <c r="B104" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="56" t="s">
         <v>204</v>
       </c>
       <c r="D104" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="57"/>
+      <c r="E104" s="67"/>
       <c r="F104" s="25" t="s">
         <v>469</v>
       </c>
@@ -56397,14 +56397,14 @@
       <c r="M104" s="29"/>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="68"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E105" s="57"/>
-      <c r="F105" s="77" t="s">
+      <c r="E105" s="67"/>
+      <c r="F105" s="59" t="s">
         <v>470</v>
       </c>
       <c r="G105" s="23" t="s">
@@ -56418,14 +56418,14 @@
       <c r="M105" s="29"/>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E106" s="57"/>
-      <c r="F106" s="78"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="97"/>
       <c r="G106" s="23" t="s">
         <v>210</v>
       </c>
@@ -56437,14 +56437,14 @@
       <c r="M106" s="29"/>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="68"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E107" s="57"/>
-      <c r="F107" s="78"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="97"/>
       <c r="G107" s="23" t="s">
         <v>169</v>
       </c>
@@ -56456,14 +56456,14 @@
       <c r="M107" s="29"/>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="68"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
       <c r="D108" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="E108" s="57"/>
-      <c r="F108" s="78"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="97"/>
       <c r="G108" s="23" t="s">
         <v>213</v>
       </c>
@@ -56475,14 +56475,14 @@
       <c r="M108" s="29"/>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="68"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
       <c r="D109" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="E109" s="57"/>
-      <c r="F109" s="78"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="97"/>
       <c r="G109" s="23" t="s">
         <v>215</v>
       </c>
@@ -56494,14 +56494,14 @@
       <c r="M109" s="29"/>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="68"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
       <c r="D110" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="E110" s="57"/>
-      <c r="F110" s="78"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="97"/>
       <c r="G110" s="25" t="s">
         <v>217</v>
       </c>
@@ -56513,14 +56513,14 @@
       <c r="M110" s="29"/>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="68"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
       <c r="D111" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E111" s="57"/>
-      <c r="F111" s="78"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="97"/>
       <c r="G111" s="25" t="s">
         <v>219</v>
       </c>
@@ -56532,14 +56532,14 @@
       <c r="M111" s="29"/>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="68"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
       <c r="D112" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E112" s="57"/>
-      <c r="F112" s="78"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="97"/>
       <c r="G112" s="22" t="s">
         <v>221</v>
       </c>
@@ -56551,14 +56551,14 @@
       <c r="M112" s="29"/>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="68"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
       <c r="D113" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E113" s="57"/>
-      <c r="F113" s="78"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="97"/>
       <c r="G113" s="23" t="s">
         <v>223</v>
       </c>
@@ -56570,14 +56570,14 @@
       <c r="M113" s="29"/>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="68"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
       <c r="D114" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E114" s="57"/>
-      <c r="F114" s="78"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="97"/>
       <c r="G114" s="23" t="s">
         <v>225</v>
       </c>
@@ -56589,18 +56589,18 @@
       <c r="M114" s="29"/>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="68"/>
-      <c r="B115" s="67" t="s">
+      <c r="A115" s="64"/>
+      <c r="B115" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="67" t="s">
+      <c r="C115" s="56" t="s">
         <v>226</v>
       </c>
       <c r="D115" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E115" s="57"/>
-      <c r="F115" s="78"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="97"/>
       <c r="G115" s="23" t="s">
         <v>213</v>
       </c>
@@ -56612,14 +56612,14 @@
       <c r="M115" s="29"/>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="68"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
       <c r="D116" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="57"/>
-      <c r="F116" s="78"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="97"/>
       <c r="G116" s="23" t="s">
         <v>229</v>
       </c>
@@ -56631,14 +56631,14 @@
       <c r="M116" s="29"/>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="68"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="68"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
       <c r="D117" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="E117" s="57"/>
-      <c r="F117" s="78"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="97"/>
       <c r="G117" s="23" t="s">
         <v>231</v>
       </c>
@@ -56650,14 +56650,14 @@
       <c r="M117" s="29"/>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="68"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="68"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
       <c r="D118" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E118" s="57"/>
-      <c r="F118" s="78"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="97"/>
       <c r="G118" s="23" t="s">
         <v>233</v>
       </c>
@@ -56669,14 +56669,14 @@
       <c r="M118" s="29"/>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
-      <c r="B119" s="68"/>
-      <c r="C119" s="68"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
       <c r="D119" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E119" s="57"/>
-      <c r="F119" s="78"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="97"/>
       <c r="G119" s="23" t="s">
         <v>235</v>
       </c>
@@ -56688,14 +56688,14 @@
       <c r="M119" s="29"/>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="69"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="69"/>
+      <c r="A120" s="65"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E120" s="58"/>
-      <c r="F120" s="79"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="98"/>
       <c r="G120" s="23" t="s">
         <v>237</v>
       </c>
@@ -56707,43 +56707,43 @@
       <c r="M120" s="29"/>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="55" t="s">
+      <c r="A121" s="78"/>
+      <c r="B121" s="79"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="80"/>
+      <c r="H121" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55" t="s">
+      <c r="I121" s="85"/>
+      <c r="J121" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K121" s="55"/>
-      <c r="L121" s="55" t="s">
+      <c r="K121" s="85"/>
+      <c r="L121" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M121" s="55"/>
+      <c r="M121" s="85"/>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="B122" s="85" t="s">
+      <c r="B122" s="101" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="87" t="s">
+      <c r="C122" s="102" t="s">
         <v>387</v>
       </c>
       <c r="D122" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="E122" s="89" t="s">
+      <c r="E122" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="F122" s="59" t="s">
+      <c r="F122" s="63" t="s">
         <v>465</v>
       </c>
       <c r="G122" s="46" t="s">
@@ -56757,14 +56757,14 @@
       <c r="M122" s="29"/>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="84"/>
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
+      <c r="A123" s="100"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="93"/>
       <c r="D123" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="E123" s="86"/>
-      <c r="F123" s="60"/>
+      <c r="E123" s="93"/>
+      <c r="F123" s="94"/>
       <c r="G123" s="46" t="s">
         <v>399</v>
       </c>
@@ -56776,14 +56776,14 @@
       <c r="M123" s="29"/>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="84"/>
-      <c r="B124" s="86"/>
-      <c r="C124" s="86"/>
+      <c r="A124" s="100"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="93"/>
       <c r="D124" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="E124" s="86"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="93"/>
+      <c r="F124" s="94"/>
       <c r="G124" s="43" t="s">
         <v>400</v>
       </c>
@@ -56795,14 +56795,14 @@
       <c r="M124" s="29"/>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="84"/>
-      <c r="B125" s="86"/>
-      <c r="C125" s="86"/>
+      <c r="A125" s="100"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="93"/>
       <c r="D125" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="E125" s="86"/>
-      <c r="F125" s="60"/>
+      <c r="E125" s="93"/>
+      <c r="F125" s="94"/>
       <c r="G125" s="42" t="s">
         <v>401</v>
       </c>
@@ -56814,14 +56814,14 @@
       <c r="M125" s="29"/>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="84"/>
-      <c r="B126" s="86"/>
-      <c r="C126" s="86"/>
+      <c r="A126" s="100"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="93"/>
       <c r="D126" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="E126" s="86"/>
-      <c r="F126" s="60"/>
+      <c r="E126" s="93"/>
+      <c r="F126" s="94"/>
       <c r="G126" s="23" t="s">
         <v>402</v>
       </c>
@@ -56833,14 +56833,14 @@
       <c r="M126" s="29"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="84"/>
-      <c r="B127" s="86"/>
-      <c r="C127" s="86"/>
+      <c r="A127" s="100"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
       <c r="D127" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="E127" s="86"/>
-      <c r="F127" s="60"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="94"/>
       <c r="G127" s="23" t="s">
         <v>403</v>
       </c>
@@ -56852,14 +56852,14 @@
       <c r="M127" s="29"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="84"/>
-      <c r="B128" s="86"/>
-      <c r="C128" s="86"/>
+      <c r="A128" s="100"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="93"/>
       <c r="D128" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="E128" s="86"/>
-      <c r="F128" s="60"/>
+      <c r="E128" s="93"/>
+      <c r="F128" s="94"/>
       <c r="G128" s="23" t="s">
         <v>404</v>
       </c>
@@ -56871,16 +56871,16 @@
       <c r="M128" s="29"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="84"/>
-      <c r="B129" s="86"/>
-      <c r="C129" s="67" t="s">
+      <c r="A129" s="100"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="56" t="s">
         <v>388</v>
       </c>
       <c r="D129" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="E129" s="86"/>
-      <c r="F129" s="60"/>
+      <c r="E129" s="93"/>
+      <c r="F129" s="94"/>
       <c r="G129" s="22" t="s">
         <v>405</v>
       </c>
@@ -56892,14 +56892,14 @@
       <c r="M129" s="29"/>
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="84"/>
-      <c r="B130" s="86"/>
-      <c r="C130" s="68"/>
+      <c r="A130" s="100"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="64"/>
       <c r="D130" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="E130" s="86"/>
-      <c r="F130" s="60"/>
+      <c r="E130" s="93"/>
+      <c r="F130" s="94"/>
       <c r="G130" s="23" t="s">
         <v>406</v>
       </c>
@@ -56911,14 +56911,14 @@
       <c r="M130" s="29"/>
     </row>
     <row r="131" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="84"/>
-      <c r="B131" s="86"/>
-      <c r="C131" s="68"/>
+      <c r="A131" s="100"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="64"/>
       <c r="D131" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="E131" s="86"/>
-      <c r="F131" s="60"/>
+      <c r="E131" s="93"/>
+      <c r="F131" s="94"/>
       <c r="G131" s="23" t="s">
         <v>407</v>
       </c>
@@ -56930,14 +56930,14 @@
       <c r="M131" s="29"/>
     </row>
     <row r="132" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="84"/>
-      <c r="B132" s="86"/>
-      <c r="C132" s="68"/>
+      <c r="A132" s="100"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="64"/>
       <c r="D132" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="E132" s="86"/>
-      <c r="F132" s="60"/>
+      <c r="E132" s="93"/>
+      <c r="F132" s="94"/>
       <c r="G132" s="23" t="s">
         <v>408</v>
       </c>
@@ -56949,14 +56949,14 @@
       <c r="M132" s="29"/>
     </row>
     <row r="133" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="84"/>
-      <c r="B133" s="86"/>
-      <c r="C133" s="68"/>
+      <c r="A133" s="100"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="64"/>
       <c r="D133" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="E133" s="86"/>
-      <c r="F133" s="60"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="94"/>
       <c r="G133" s="23" t="s">
         <v>409</v>
       </c>
@@ -56968,14 +56968,14 @@
       <c r="M133" s="29"/>
     </row>
     <row r="134" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="84"/>
-      <c r="B134" s="86"/>
-      <c r="C134" s="69"/>
+      <c r="A134" s="100"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="65"/>
       <c r="D134" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="E134" s="86"/>
-      <c r="F134" s="60"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="94"/>
       <c r="G134" s="23" t="s">
         <v>410</v>
       </c>
@@ -56987,16 +56987,16 @@
       <c r="M134" s="29"/>
     </row>
     <row r="135" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="84"/>
-      <c r="B135" s="86"/>
-      <c r="C135" s="67" t="s">
+      <c r="A135" s="100"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="56" t="s">
         <v>389</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="E135" s="86"/>
-      <c r="F135" s="60"/>
+      <c r="E135" s="93"/>
+      <c r="F135" s="94"/>
       <c r="G135" s="23" t="s">
         <v>411</v>
       </c>
@@ -57008,14 +57008,14 @@
       <c r="M135" s="29"/>
     </row>
     <row r="136" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="84"/>
-      <c r="B136" s="86"/>
-      <c r="C136" s="68"/>
+      <c r="A136" s="100"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="64"/>
       <c r="D136" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="E136" s="86"/>
-      <c r="F136" s="60"/>
+      <c r="E136" s="93"/>
+      <c r="F136" s="94"/>
       <c r="G136" s="23" t="s">
         <v>412</v>
       </c>
@@ -57027,14 +57027,14 @@
       <c r="M136" s="29"/>
     </row>
     <row r="137" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="84"/>
-      <c r="B137" s="86"/>
-      <c r="C137" s="68"/>
+      <c r="A137" s="100"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="64"/>
       <c r="D137" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E137" s="86"/>
-      <c r="F137" s="60"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="94"/>
       <c r="G137" s="23" t="s">
         <v>413</v>
       </c>
@@ -57046,14 +57046,14 @@
       <c r="M137" s="29"/>
     </row>
     <row r="138" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="84"/>
-      <c r="B138" s="86"/>
-      <c r="C138" s="68"/>
+      <c r="A138" s="100"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="64"/>
       <c r="D138" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="E138" s="86"/>
-      <c r="F138" s="60"/>
+      <c r="E138" s="93"/>
+      <c r="F138" s="94"/>
       <c r="G138" s="23" t="s">
         <v>414</v>
       </c>
@@ -57065,14 +57065,14 @@
       <c r="M138" s="29"/>
     </row>
     <row r="139" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="84"/>
-      <c r="B139" s="86"/>
-      <c r="C139" s="68"/>
+      <c r="A139" s="100"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="64"/>
       <c r="D139" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="E139" s="86"/>
-      <c r="F139" s="60"/>
+      <c r="E139" s="93"/>
+      <c r="F139" s="94"/>
       <c r="G139" s="23" t="s">
         <v>415</v>
       </c>
@@ -57084,14 +57084,14 @@
       <c r="M139" s="29"/>
     </row>
     <row r="140" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="84"/>
-      <c r="B140" s="86"/>
-      <c r="C140" s="68"/>
+      <c r="A140" s="100"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="64"/>
       <c r="D140" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="E140" s="86"/>
-      <c r="F140" s="60"/>
+      <c r="E140" s="93"/>
+      <c r="F140" s="94"/>
       <c r="G140" s="23" t="s">
         <v>434</v>
       </c>
@@ -57103,14 +57103,14 @@
       <c r="M140" s="29"/>
     </row>
     <row r="141" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="84"/>
-      <c r="B141" s="86"/>
-      <c r="C141" s="68"/>
+      <c r="A141" s="100"/>
+      <c r="B141" s="93"/>
+      <c r="C141" s="64"/>
       <c r="D141" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E141" s="86"/>
-      <c r="F141" s="60"/>
+      <c r="E141" s="93"/>
+      <c r="F141" s="94"/>
       <c r="G141" s="23" t="s">
         <v>416</v>
       </c>
@@ -57122,14 +57122,14 @@
       <c r="M141" s="29"/>
     </row>
     <row r="142" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="84"/>
-      <c r="B142" s="86"/>
-      <c r="C142" s="68"/>
+      <c r="A142" s="100"/>
+      <c r="B142" s="93"/>
+      <c r="C142" s="64"/>
       <c r="D142" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="E142" s="86"/>
-      <c r="F142" s="60"/>
+      <c r="E142" s="93"/>
+      <c r="F142" s="94"/>
       <c r="G142" s="23" t="s">
         <v>417</v>
       </c>
@@ -57141,14 +57141,14 @@
       <c r="M142" s="29"/>
     </row>
     <row r="143" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="84"/>
-      <c r="B143" s="86"/>
-      <c r="C143" s="68"/>
+      <c r="A143" s="100"/>
+      <c r="B143" s="93"/>
+      <c r="C143" s="64"/>
       <c r="D143" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="E143" s="86"/>
-      <c r="F143" s="60"/>
+      <c r="E143" s="93"/>
+      <c r="F143" s="94"/>
       <c r="G143" s="23" t="s">
         <v>418</v>
       </c>
@@ -57160,14 +57160,14 @@
       <c r="M143" s="29"/>
     </row>
     <row r="144" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="84"/>
-      <c r="B144" s="86"/>
-      <c r="C144" s="68"/>
+      <c r="A144" s="100"/>
+      <c r="B144" s="93"/>
+      <c r="C144" s="64"/>
       <c r="D144" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E144" s="86"/>
-      <c r="F144" s="60"/>
+      <c r="E144" s="93"/>
+      <c r="F144" s="94"/>
       <c r="G144" s="23" t="s">
         <v>419</v>
       </c>
@@ -57179,14 +57179,14 @@
       <c r="M144" s="29"/>
     </row>
     <row r="145" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="84"/>
-      <c r="B145" s="86"/>
-      <c r="C145" s="68"/>
+      <c r="A145" s="100"/>
+      <c r="B145" s="93"/>
+      <c r="C145" s="64"/>
       <c r="D145" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="E145" s="86"/>
-      <c r="F145" s="60"/>
+      <c r="E145" s="93"/>
+      <c r="F145" s="94"/>
       <c r="G145" s="23" t="s">
         <v>420</v>
       </c>
@@ -57198,14 +57198,14 @@
       <c r="M145" s="29"/>
     </row>
     <row r="146" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="84"/>
-      <c r="B146" s="86"/>
-      <c r="C146" s="68"/>
+      <c r="A146" s="100"/>
+      <c r="B146" s="93"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="E146" s="86"/>
-      <c r="F146" s="60"/>
+      <c r="E146" s="93"/>
+      <c r="F146" s="94"/>
       <c r="G146" s="23" t="s">
         <v>421</v>
       </c>
@@ -57217,14 +57217,14 @@
       <c r="M146" s="29"/>
     </row>
     <row r="147" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="84"/>
-      <c r="B147" s="86"/>
-      <c r="C147" s="68"/>
+      <c r="A147" s="100"/>
+      <c r="B147" s="93"/>
+      <c r="C147" s="64"/>
       <c r="D147" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E147" s="86"/>
-      <c r="F147" s="60"/>
+      <c r="E147" s="93"/>
+      <c r="F147" s="94"/>
       <c r="G147" s="23" t="s">
         <v>422</v>
       </c>
@@ -57236,14 +57236,14 @@
       <c r="M147" s="29"/>
     </row>
     <row r="148" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="84"/>
-      <c r="B148" s="86"/>
-      <c r="C148" s="69"/>
+      <c r="A148" s="100"/>
+      <c r="B148" s="93"/>
+      <c r="C148" s="65"/>
       <c r="D148" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E148" s="86"/>
-      <c r="F148" s="60"/>
+      <c r="E148" s="93"/>
+      <c r="F148" s="94"/>
       <c r="G148" s="23" t="s">
         <v>423</v>
       </c>
@@ -57255,16 +57255,16 @@
       <c r="M148" s="29"/>
     </row>
     <row r="149" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="84"/>
-      <c r="B149" s="86"/>
-      <c r="C149" s="56" t="s">
+      <c r="A149" s="100"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="82" t="s">
         <v>390</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="E149" s="86"/>
-      <c r="F149" s="60"/>
+      <c r="E149" s="93"/>
+      <c r="F149" s="94"/>
       <c r="G149" s="32" t="s">
         <v>424</v>
       </c>
@@ -57276,14 +57276,14 @@
       <c r="M149" s="29"/>
     </row>
     <row r="150" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="84"/>
-      <c r="B150" s="86"/>
-      <c r="C150" s="57"/>
+      <c r="A150" s="100"/>
+      <c r="B150" s="93"/>
+      <c r="C150" s="67"/>
       <c r="D150" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="E150" s="86"/>
-      <c r="F150" s="60"/>
+      <c r="E150" s="93"/>
+      <c r="F150" s="94"/>
       <c r="G150" s="23" t="s">
         <v>425</v>
       </c>
@@ -57295,14 +57295,14 @@
       <c r="M150" s="29"/>
     </row>
     <row r="151" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="84"/>
-      <c r="B151" s="86"/>
-      <c r="C151" s="57"/>
+      <c r="A151" s="100"/>
+      <c r="B151" s="93"/>
+      <c r="C151" s="67"/>
       <c r="D151" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E151" s="86"/>
-      <c r="F151" s="60"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="94"/>
       <c r="G151" s="23" t="s">
         <v>426</v>
       </c>
@@ -57314,14 +57314,14 @@
       <c r="M151" s="29"/>
     </row>
     <row r="152" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="84"/>
-      <c r="B152" s="86"/>
-      <c r="C152" s="57"/>
+      <c r="A152" s="100"/>
+      <c r="B152" s="93"/>
+      <c r="C152" s="67"/>
       <c r="D152" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E152" s="86"/>
-      <c r="F152" s="60"/>
+      <c r="E152" s="93"/>
+      <c r="F152" s="94"/>
       <c r="G152" s="23" t="s">
         <v>427</v>
       </c>
@@ -57333,14 +57333,14 @@
       <c r="M152" s="29"/>
     </row>
     <row r="153" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="84"/>
-      <c r="B153" s="86"/>
-      <c r="C153" s="57"/>
+      <c r="A153" s="100"/>
+      <c r="B153" s="93"/>
+      <c r="C153" s="67"/>
       <c r="D153" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E153" s="86"/>
-      <c r="F153" s="60"/>
+      <c r="E153" s="93"/>
+      <c r="F153" s="94"/>
       <c r="G153" s="23" t="s">
         <v>428</v>
       </c>
@@ -57352,14 +57352,14 @@
       <c r="M153" s="29"/>
     </row>
     <row r="154" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="84"/>
-      <c r="B154" s="86"/>
-      <c r="C154" s="57"/>
+      <c r="A154" s="100"/>
+      <c r="B154" s="93"/>
+      <c r="C154" s="67"/>
       <c r="D154" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="E154" s="86"/>
-      <c r="F154" s="60"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="94"/>
       <c r="G154" s="23" t="s">
         <v>429</v>
       </c>
@@ -57371,14 +57371,14 @@
       <c r="M154" s="29"/>
     </row>
     <row r="155" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="84"/>
-      <c r="B155" s="86"/>
-      <c r="C155" s="57"/>
+      <c r="A155" s="100"/>
+      <c r="B155" s="93"/>
+      <c r="C155" s="67"/>
       <c r="D155" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="E155" s="86"/>
-      <c r="F155" s="60"/>
+      <c r="E155" s="93"/>
+      <c r="F155" s="94"/>
       <c r="G155" s="23" t="s">
         <v>430</v>
       </c>
@@ -57390,14 +57390,14 @@
       <c r="M155" s="29"/>
     </row>
     <row r="156" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="84"/>
-      <c r="B156" s="86"/>
-      <c r="C156" s="57"/>
+      <c r="A156" s="100"/>
+      <c r="B156" s="93"/>
+      <c r="C156" s="67"/>
       <c r="D156" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E156" s="86"/>
-      <c r="F156" s="60"/>
+      <c r="E156" s="93"/>
+      <c r="F156" s="94"/>
       <c r="G156" s="23" t="s">
         <v>431</v>
       </c>
@@ -57409,14 +57409,14 @@
       <c r="M156" s="29"/>
     </row>
     <row r="157" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="84"/>
-      <c r="B157" s="86"/>
-      <c r="C157" s="57"/>
+      <c r="A157" s="100"/>
+      <c r="B157" s="93"/>
+      <c r="C157" s="67"/>
       <c r="D157" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="E157" s="86"/>
-      <c r="F157" s="60"/>
+      <c r="E157" s="93"/>
+      <c r="F157" s="94"/>
       <c r="G157" s="23" t="s">
         <v>432</v>
       </c>
@@ -57428,14 +57428,14 @@
       <c r="M157" s="29"/>
     </row>
     <row r="158" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="84"/>
-      <c r="B158" s="86"/>
-      <c r="C158" s="57"/>
+      <c r="A158" s="100"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="67"/>
       <c r="D158" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="E158" s="86"/>
-      <c r="F158" s="61"/>
+      <c r="E158" s="93"/>
+      <c r="F158" s="95"/>
       <c r="G158" s="23" t="s">
         <v>433</v>
       </c>
@@ -57447,43 +57447,43 @@
       <c r="M158" s="29"/>
     </row>
     <row r="159" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
-      <c r="B159" s="53"/>
-      <c r="C159" s="53"/>
-      <c r="D159" s="53"/>
-      <c r="E159" s="53"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="55" t="s">
+      <c r="A159" s="78"/>
+      <c r="B159" s="79"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="80"/>
+      <c r="H159" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I159" s="55"/>
-      <c r="J159" s="55" t="s">
+      <c r="I159" s="85"/>
+      <c r="J159" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K159" s="55"/>
-      <c r="L159" s="55" t="s">
+      <c r="K159" s="85"/>
+      <c r="L159" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M159" s="55"/>
+      <c r="M159" s="85"/>
     </row>
     <row r="160" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="56" t="s">
+      <c r="A160" s="82" t="s">
         <v>277</v>
       </c>
-      <c r="B160" s="56" t="s">
+      <c r="B160" s="82" t="s">
         <v>277</v>
       </c>
-      <c r="C160" s="56" t="s">
+      <c r="C160" s="82" t="s">
         <v>278</v>
       </c>
       <c r="D160" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="E160" s="56" t="s">
+      <c r="E160" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="F160" s="67" t="s">
+      <c r="F160" s="56" t="s">
         <v>281</v>
       </c>
       <c r="G160" s="35" t="s">
@@ -57497,14 +57497,14 @@
       <c r="M160" s="29"/>
     </row>
     <row r="161" spans="1:14" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A161" s="57"/>
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
+      <c r="A161" s="67"/>
+      <c r="B161" s="67"/>
+      <c r="C161" s="67"/>
       <c r="D161" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="E161" s="57"/>
-      <c r="F161" s="68"/>
+      <c r="E161" s="67"/>
+      <c r="F161" s="64"/>
       <c r="G161" s="44" t="s">
         <v>284</v>
       </c>
@@ -57516,14 +57516,14 @@
       <c r="M161" s="29"/>
     </row>
     <row r="162" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="57"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
+      <c r="A162" s="67"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
       <c r="D162" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="E162" s="57"/>
-      <c r="F162" s="68"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="64"/>
       <c r="G162" s="35" t="s">
         <v>286</v>
       </c>
@@ -57535,14 +57535,14 @@
       <c r="M162" s="29"/>
     </row>
     <row r="163" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="57"/>
-      <c r="B163" s="57"/>
-      <c r="C163" s="57"/>
+      <c r="A163" s="67"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="67"/>
       <c r="D163" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="E163" s="57"/>
-      <c r="F163" s="68"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="64"/>
       <c r="G163" s="34" t="s">
         <v>288</v>
       </c>
@@ -57554,14 +57554,14 @@
       <c r="M163" s="29"/>
     </row>
     <row r="164" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="57"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="57"/>
+      <c r="A164" s="67"/>
+      <c r="B164" s="67"/>
+      <c r="C164" s="67"/>
       <c r="D164" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="E164" s="57"/>
-      <c r="F164" s="68"/>
+      <c r="E164" s="67"/>
+      <c r="F164" s="64"/>
       <c r="G164" s="35" t="s">
         <v>290</v>
       </c>
@@ -57573,14 +57573,14 @@
       <c r="M164" s="29"/>
     </row>
     <row r="165" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="57"/>
-      <c r="B165" s="57"/>
-      <c r="C165" s="57"/>
+      <c r="A165" s="67"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="67"/>
       <c r="D165" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E165" s="57"/>
-      <c r="F165" s="68"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="64"/>
       <c r="G165" s="34" t="s">
         <v>292</v>
       </c>
@@ -57592,14 +57592,14 @@
       <c r="M165" s="29"/>
     </row>
     <row r="166" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="57"/>
-      <c r="B166" s="57"/>
-      <c r="C166" s="57"/>
+      <c r="A166" s="67"/>
+      <c r="B166" s="67"/>
+      <c r="C166" s="67"/>
       <c r="D166" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="E166" s="57"/>
-      <c r="F166" s="68"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="64"/>
       <c r="G166" s="35" t="s">
         <v>294</v>
       </c>
@@ -57611,14 +57611,14 @@
       <c r="M166" s="29"/>
     </row>
     <row r="167" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="57"/>
-      <c r="B167" s="57"/>
-      <c r="C167" s="57"/>
+      <c r="A167" s="67"/>
+      <c r="B167" s="67"/>
+      <c r="C167" s="67"/>
       <c r="D167" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E167" s="57"/>
-      <c r="F167" s="68"/>
+      <c r="E167" s="67"/>
+      <c r="F167" s="64"/>
       <c r="G167" s="35" t="s">
         <v>296</v>
       </c>
@@ -57630,14 +57630,14 @@
       <c r="M167" s="29"/>
     </row>
     <row r="168" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="57"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="57"/>
+      <c r="A168" s="67"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="67"/>
       <c r="D168" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E168" s="57"/>
-      <c r="F168" s="68"/>
+      <c r="E168" s="67"/>
+      <c r="F168" s="64"/>
       <c r="G168" s="34" t="s">
         <v>298</v>
       </c>
@@ -57649,14 +57649,14 @@
       <c r="M168" s="29"/>
     </row>
     <row r="169" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="57"/>
-      <c r="B169" s="57"/>
-      <c r="C169" s="57"/>
+      <c r="A169" s="67"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
       <c r="D169" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="E169" s="57"/>
-      <c r="F169" s="68"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="64"/>
       <c r="G169" s="34" t="s">
         <v>300</v>
       </c>
@@ -57668,14 +57668,14 @@
       <c r="M169" s="29"/>
     </row>
     <row r="170" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="57"/>
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
+      <c r="A170" s="67"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
       <c r="D170" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="E170" s="57"/>
-      <c r="F170" s="68"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="64"/>
       <c r="G170" s="35" t="s">
         <v>302</v>
       </c>
@@ -57687,14 +57687,14 @@
       <c r="M170" s="29"/>
     </row>
     <row r="171" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="57"/>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
+      <c r="A171" s="67"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="67"/>
       <c r="D171" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E171" s="57"/>
-      <c r="F171" s="68"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="64"/>
       <c r="G171" s="34" t="s">
         <v>304</v>
       </c>
@@ -57706,14 +57706,14 @@
       <c r="M171" s="29"/>
     </row>
     <row r="172" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="57"/>
-      <c r="B172" s="57"/>
-      <c r="C172" s="57"/>
+      <c r="A172" s="67"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
       <c r="D172" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="E172" s="57"/>
-      <c r="F172" s="68"/>
+      <c r="E172" s="67"/>
+      <c r="F172" s="64"/>
       <c r="G172" s="34" t="s">
         <v>306</v>
       </c>
@@ -57725,14 +57725,14 @@
       <c r="M172" s="29"/>
     </row>
     <row r="173" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="58"/>
-      <c r="B173" s="58"/>
-      <c r="C173" s="58"/>
+      <c r="A173" s="68"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="68"/>
       <c r="D173" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="E173" s="58"/>
-      <c r="F173" s="69"/>
+      <c r="E173" s="68"/>
+      <c r="F173" s="65"/>
       <c r="G173" s="34" t="s">
         <v>308</v>
       </c>
@@ -57772,29 +57772,29 @@
       <c r="N175" s="12"/>
     </row>
     <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="110" t="s">
+      <c r="A177" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="110"/>
-      <c r="C177" s="110"/>
-      <c r="D177" s="111" t="s">
+      <c r="B177" s="116"/>
+      <c r="C177" s="116"/>
+      <c r="D177" s="117" t="s">
         <v>48</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
       <c r="G177" s="24"/>
-      <c r="H177" s="55" t="s">
+      <c r="H177" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="I177" s="55"/>
-      <c r="J177" s="55" t="s">
+      <c r="I177" s="85"/>
+      <c r="J177" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="K177" s="55"/>
-      <c r="L177" s="55" t="s">
+      <c r="K177" s="85"/>
+      <c r="L177" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="M177" s="55"/>
+      <c r="M177" s="85"/>
     </row>
     <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="24" t="s">
@@ -57806,22 +57806,22 @@
       <c r="C178" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D178" s="110"/>
+      <c r="D178" s="116"/>
       <c r="E178" s="17"/>
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
-      <c r="H178" s="55" t="s">
+      <c r="H178" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I178" s="55"/>
-      <c r="J178" s="55" t="s">
+      <c r="I178" s="85"/>
+      <c r="J178" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="K178" s="55"/>
-      <c r="L178" s="55" t="s">
+      <c r="K178" s="85"/>
+      <c r="L178" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M178" s="55"/>
+      <c r="M178" s="85"/>
     </row>
     <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18"/>
@@ -57851,22 +57851,22 @@
       </c>
     </row>
     <row r="180" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="56" t="s">
+      <c r="A180" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="B180" s="56" t="s">
+      <c r="B180" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="C180" s="56" t="s">
+      <c r="C180" s="82" t="s">
         <v>324</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="E180" s="56" t="s">
+      <c r="E180" s="82" t="s">
         <v>326</v>
       </c>
-      <c r="F180" s="59" t="s">
+      <c r="F180" s="63" t="s">
         <v>327</v>
       </c>
       <c r="G180" s="25" t="s">
@@ -57882,14 +57882,14 @@
       <c r="M180" s="29"/>
     </row>
     <row r="181" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="57"/>
-      <c r="B181" s="57"/>
-      <c r="C181" s="57"/>
+      <c r="A181" s="67"/>
+      <c r="B181" s="67"/>
+      <c r="C181" s="67"/>
       <c r="D181" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E181" s="57"/>
-      <c r="F181" s="60"/>
+      <c r="E181" s="67"/>
+      <c r="F181" s="94"/>
       <c r="G181" s="23" t="s">
         <v>330</v>
       </c>
@@ -57898,15 +57898,15 @@
       <c r="J181" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="K181" s="119" t="s">
+      <c r="K181" s="52" t="s">
         <v>513</v>
       </c>
       <c r="L181" s="16"/>
       <c r="M181" s="29"/>
     </row>
     <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="57"/>
-      <c r="B182" s="59" t="s">
+      <c r="A182" s="67"/>
+      <c r="B182" s="63" t="s">
         <v>331</v>
       </c>
       <c r="C182" s="22" t="s">
@@ -57915,8 +57915,8 @@
       <c r="D182" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="E182" s="57"/>
-      <c r="F182" s="60"/>
+      <c r="E182" s="67"/>
+      <c r="F182" s="94"/>
       <c r="G182" s="23" t="s">
         <v>334</v>
       </c>
@@ -57930,16 +57930,16 @@
       <c r="M182" s="29"/>
     </row>
     <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="57"/>
-      <c r="B183" s="60"/>
+      <c r="A183" s="67"/>
+      <c r="B183" s="94"/>
       <c r="C183" s="23" t="s">
         <v>335</v>
       </c>
       <c r="D183" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="E183" s="58"/>
-      <c r="F183" s="61"/>
+      <c r="E183" s="68"/>
+      <c r="F183" s="95"/>
       <c r="G183" s="23" t="s">
         <v>337</v>
       </c>
@@ -57953,22 +57953,22 @@
       <c r="M183" s="29"/>
     </row>
     <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="56" t="s">
+      <c r="A184" s="82" t="s">
         <v>472</v>
       </c>
-      <c r="B184" s="67" t="s">
+      <c r="B184" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="C184" s="67" t="s">
+      <c r="C184" s="56" t="s">
         <v>474</v>
       </c>
       <c r="D184" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="E184" s="56" t="s">
+      <c r="E184" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="F184" s="77" t="s">
+      <c r="F184" s="59" t="s">
         <v>492</v>
       </c>
       <c r="G184" s="23" t="s">
@@ -57982,14 +57982,14 @@
       <c r="M184" s="29"/>
     </row>
     <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="57"/>
-      <c r="B185" s="68"/>
-      <c r="C185" s="69"/>
+      <c r="A185" s="67"/>
+      <c r="B185" s="64"/>
+      <c r="C185" s="65"/>
       <c r="D185" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="E185" s="62"/>
-      <c r="F185" s="78"/>
+      <c r="E185" s="103"/>
+      <c r="F185" s="97"/>
       <c r="G185" s="22" t="s">
         <v>494</v>
       </c>
@@ -58001,16 +58001,16 @@
       <c r="M185" s="29"/>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="57"/>
-      <c r="B186" s="68"/>
-      <c r="C186" s="70" t="s">
+      <c r="A186" s="67"/>
+      <c r="B186" s="64"/>
+      <c r="C186" s="54" t="s">
         <v>481</v>
       </c>
       <c r="D186" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="E186" s="62"/>
-      <c r="F186" s="78"/>
+      <c r="E186" s="103"/>
+      <c r="F186" s="97"/>
       <c r="G186" s="23" t="s">
         <v>495</v>
       </c>
@@ -58022,14 +58022,14 @@
       <c r="M186" s="29"/>
     </row>
     <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="57"/>
-      <c r="B187" s="68"/>
-      <c r="C187" s="63"/>
+      <c r="A187" s="67"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="55"/>
       <c r="D187" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="E187" s="62"/>
-      <c r="F187" s="78"/>
+      <c r="E187" s="103"/>
+      <c r="F187" s="97"/>
       <c r="G187" s="23" t="s">
         <v>496</v>
       </c>
@@ -58041,16 +58041,16 @@
       <c r="M187" s="29"/>
     </row>
     <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="57"/>
-      <c r="B188" s="68"/>
-      <c r="C188" s="67" t="s">
+      <c r="A188" s="67"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="56" t="s">
         <v>477</v>
       </c>
       <c r="D188" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="E188" s="62"/>
-      <c r="F188" s="78"/>
+      <c r="E188" s="103"/>
+      <c r="F188" s="97"/>
       <c r="G188" s="23" t="s">
         <v>497</v>
       </c>
@@ -58062,14 +58062,14 @@
       <c r="M188" s="29"/>
     </row>
     <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="57"/>
-      <c r="B189" s="68"/>
-      <c r="C189" s="69"/>
+      <c r="A189" s="67"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="65"/>
       <c r="D189" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="E189" s="62"/>
-      <c r="F189" s="78"/>
+      <c r="E189" s="103"/>
+      <c r="F189" s="97"/>
       <c r="G189" s="23" t="s">
         <v>498</v>
       </c>
@@ -58081,16 +58081,16 @@
       <c r="M189" s="29"/>
     </row>
     <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="57"/>
-      <c r="B190" s="68"/>
-      <c r="C190" s="67" t="s">
+      <c r="A190" s="67"/>
+      <c r="B190" s="64"/>
+      <c r="C190" s="56" t="s">
         <v>480</v>
       </c>
       <c r="D190" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="E190" s="62"/>
-      <c r="F190" s="78"/>
+      <c r="E190" s="103"/>
+      <c r="F190" s="97"/>
       <c r="G190" s="23" t="s">
         <v>499</v>
       </c>
@@ -58102,14 +58102,14 @@
       <c r="M190" s="29"/>
     </row>
     <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="57"/>
-      <c r="B191" s="68"/>
-      <c r="C191" s="68"/>
+      <c r="A191" s="67"/>
+      <c r="B191" s="64"/>
+      <c r="C191" s="64"/>
       <c r="D191" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="E191" s="62"/>
-      <c r="F191" s="78"/>
+      <c r="E191" s="103"/>
+      <c r="F191" s="97"/>
       <c r="G191" s="23" t="s">
         <v>500</v>
       </c>
@@ -58121,14 +58121,14 @@
       <c r="M191" s="29"/>
     </row>
     <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="57"/>
-      <c r="B192" s="68"/>
-      <c r="C192" s="69"/>
+      <c r="A192" s="67"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="65"/>
       <c r="D192" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="E192" s="62"/>
-      <c r="F192" s="78"/>
+      <c r="E192" s="103"/>
+      <c r="F192" s="97"/>
       <c r="G192" s="23" t="s">
         <v>501</v>
       </c>
@@ -58140,16 +58140,16 @@
       <c r="M192" s="29"/>
     </row>
     <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="58"/>
-      <c r="B193" s="69"/>
+      <c r="A193" s="68"/>
+      <c r="B193" s="65"/>
       <c r="C193" s="49" t="s">
         <v>487</v>
       </c>
       <c r="D193" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="E193" s="63"/>
-      <c r="F193" s="79"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="98"/>
       <c r="G193" s="23" t="s">
         <v>502</v>
       </c>
@@ -58161,75 +58161,75 @@
       <c r="M193" s="29"/>
     </row>
     <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="71" t="s">
+      <c r="A194" s="107" t="s">
         <v>489</v>
       </c>
-      <c r="B194" s="72"/>
-      <c r="C194" s="72"/>
-      <c r="D194" s="72"/>
-      <c r="E194" s="72"/>
-      <c r="F194" s="72"/>
-      <c r="G194" s="72"/>
-      <c r="H194" s="72"/>
-      <c r="I194" s="72"/>
-      <c r="J194" s="72"/>
-      <c r="K194" s="72"/>
-      <c r="L194" s="72"/>
-      <c r="M194" s="73"/>
+      <c r="B194" s="108"/>
+      <c r="C194" s="108"/>
+      <c r="D194" s="108"/>
+      <c r="E194" s="108"/>
+      <c r="F194" s="108"/>
+      <c r="G194" s="108"/>
+      <c r="H194" s="108"/>
+      <c r="I194" s="108"/>
+      <c r="J194" s="108"/>
+      <c r="K194" s="108"/>
+      <c r="L194" s="108"/>
+      <c r="M194" s="109"/>
     </row>
     <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="74"/>
-      <c r="B195" s="75"/>
-      <c r="C195" s="75"/>
-      <c r="D195" s="75"/>
-      <c r="E195" s="75"/>
-      <c r="F195" s="75"/>
-      <c r="G195" s="75"/>
-      <c r="H195" s="75"/>
-      <c r="I195" s="75"/>
-      <c r="J195" s="75"/>
-      <c r="K195" s="75"/>
-      <c r="L195" s="75"/>
-      <c r="M195" s="76"/>
+      <c r="A195" s="110"/>
+      <c r="B195" s="111"/>
+      <c r="C195" s="111"/>
+      <c r="D195" s="111"/>
+      <c r="E195" s="111"/>
+      <c r="F195" s="111"/>
+      <c r="G195" s="111"/>
+      <c r="H195" s="111"/>
+      <c r="I195" s="111"/>
+      <c r="J195" s="111"/>
+      <c r="K195" s="111"/>
+      <c r="L195" s="111"/>
+      <c r="M195" s="112"/>
     </row>
     <row r="196" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="52"/>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
-      <c r="F196" s="53"/>
-      <c r="G196" s="54"/>
-      <c r="H196" s="55" t="s">
+      <c r="A196" s="78"/>
+      <c r="B196" s="79"/>
+      <c r="C196" s="79"/>
+      <c r="D196" s="79"/>
+      <c r="E196" s="79"/>
+      <c r="F196" s="79"/>
+      <c r="G196" s="80"/>
+      <c r="H196" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I196" s="55"/>
-      <c r="J196" s="55" t="s">
+      <c r="I196" s="85"/>
+      <c r="J196" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="K196" s="55"/>
-      <c r="L196" s="55" t="s">
+      <c r="K196" s="85"/>
+      <c r="L196" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="M196" s="55"/>
+      <c r="M196" s="85"/>
     </row>
     <row r="197" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="80" t="s">
+      <c r="A197" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="B197" s="56" t="s">
+      <c r="B197" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C197" s="56" t="s">
+      <c r="C197" s="82" t="s">
         <v>158</v>
       </c>
       <c r="D197" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E197" s="56" t="s">
+      <c r="E197" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="F197" s="59" t="s">
+      <c r="F197" s="63" t="s">
         <v>471</v>
       </c>
       <c r="G197" s="35" t="s">
@@ -58245,14 +58245,14 @@
       <c r="M197" s="29"/>
     </row>
     <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="81"/>
-      <c r="B198" s="57"/>
-      <c r="C198" s="57"/>
+      <c r="A198" s="114"/>
+      <c r="B198" s="67"/>
+      <c r="C198" s="67"/>
       <c r="D198" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="E198" s="62"/>
-      <c r="F198" s="62"/>
+      <c r="E198" s="103"/>
+      <c r="F198" s="103"/>
       <c r="G198" s="23" t="s">
         <v>341</v>
       </c>
@@ -58266,14 +58266,14 @@
       <c r="M198" s="29"/>
     </row>
     <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="81"/>
-      <c r="B199" s="57"/>
-      <c r="C199" s="57"/>
+      <c r="A199" s="114"/>
+      <c r="B199" s="67"/>
+      <c r="C199" s="67"/>
       <c r="D199" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E199" s="62"/>
-      <c r="F199" s="62"/>
+      <c r="E199" s="103"/>
+      <c r="F199" s="103"/>
       <c r="G199" s="23" t="s">
         <v>173</v>
       </c>
@@ -58287,14 +58287,14 @@
       <c r="M199" s="29"/>
     </row>
     <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="81"/>
-      <c r="B200" s="57"/>
-      <c r="C200" s="58"/>
+      <c r="A200" s="114"/>
+      <c r="B200" s="67"/>
+      <c r="C200" s="68"/>
       <c r="D200" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="E200" s="62"/>
-      <c r="F200" s="62"/>
+      <c r="E200" s="103"/>
+      <c r="F200" s="103"/>
       <c r="G200" s="23" t="s">
         <v>343</v>
       </c>
@@ -58308,16 +58308,16 @@
       <c r="M200" s="29"/>
     </row>
     <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="81"/>
-      <c r="B201" s="57"/>
-      <c r="C201" s="56" t="s">
+      <c r="A201" s="114"/>
+      <c r="B201" s="67"/>
+      <c r="C201" s="82" t="s">
         <v>176</v>
       </c>
       <c r="D201" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E201" s="62"/>
-      <c r="F201" s="62"/>
+      <c r="E201" s="103"/>
+      <c r="F201" s="103"/>
       <c r="G201" s="23" t="s">
         <v>345</v>
       </c>
@@ -58331,14 +58331,14 @@
       <c r="M201" s="29"/>
     </row>
     <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="81"/>
-      <c r="B202" s="58"/>
-      <c r="C202" s="58"/>
+      <c r="A202" s="114"/>
+      <c r="B202" s="68"/>
+      <c r="C202" s="68"/>
       <c r="D202" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E202" s="62"/>
-      <c r="F202" s="62"/>
+      <c r="E202" s="103"/>
+      <c r="F202" s="103"/>
       <c r="G202" s="23" t="s">
         <v>346</v>
       </c>
@@ -58352,7 +58352,7 @@
       <c r="M202" s="29"/>
     </row>
     <row r="203" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="82"/>
+      <c r="A203" s="115"/>
       <c r="B203" s="26" t="s">
         <v>187</v>
       </c>
@@ -58362,8 +58362,8 @@
       <c r="D203" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E203" s="63"/>
-      <c r="F203" s="63"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="55"/>
       <c r="G203" s="25" t="s">
         <v>190</v>
       </c>
@@ -58377,19 +58377,19 @@
       <c r="M203" s="29"/>
     </row>
     <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="56" t="s">
+      <c r="A204" s="82" t="s">
         <v>277</v>
       </c>
-      <c r="B204" s="56" t="s">
+      <c r="B204" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="C204" s="56" t="s">
+      <c r="C204" s="82" t="s">
         <v>310</v>
       </c>
       <c r="D204" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="E204" s="64" t="s">
+      <c r="E204" s="104" t="s">
         <v>347</v>
       </c>
       <c r="F204" s="45" t="s">
@@ -58406,13 +58406,13 @@
       <c r="M204" s="29"/>
     </row>
     <row r="205" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="57"/>
-      <c r="B205" s="57"/>
-      <c r="C205" s="58"/>
+      <c r="A205" s="67"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="68"/>
       <c r="D205" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E205" s="65"/>
+      <c r="E205" s="105"/>
       <c r="F205" s="48" t="s">
         <v>323</v>
       </c>
@@ -58427,15 +58427,15 @@
       <c r="M205" s="29"/>
     </row>
     <row r="206" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="57"/>
-      <c r="B206" s="57"/>
+      <c r="A206" s="67"/>
+      <c r="B206" s="67"/>
       <c r="C206" s="26" t="s">
         <v>309</v>
       </c>
       <c r="D206" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E206" s="65"/>
+      <c r="E206" s="105"/>
       <c r="F206" s="47" t="s">
         <v>317</v>
       </c>
@@ -58450,15 +58450,15 @@
       <c r="M206" s="29"/>
     </row>
     <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="58"/>
-      <c r="B207" s="58"/>
+      <c r="A207" s="68"/>
+      <c r="B207" s="68"/>
       <c r="C207" s="27" t="s">
         <v>319</v>
       </c>
       <c r="D207" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="E207" s="66"/>
+      <c r="E207" s="106"/>
       <c r="F207" s="46" t="s">
         <v>321</v>
       </c>
@@ -58626,36 +58626,86 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="A17:A58"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F17:F58"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B27:B53"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="A196:G196"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="L196:M196"/>
+    <mergeCell ref="E180:E183"/>
+    <mergeCell ref="F180:F183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A160:A173"/>
+    <mergeCell ref="B160:B173"/>
+    <mergeCell ref="C160:C173"/>
+    <mergeCell ref="E160:E173"/>
+    <mergeCell ref="F160:F173"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E197:E203"/>
+    <mergeCell ref="E204:E207"/>
+    <mergeCell ref="F197:F203"/>
+    <mergeCell ref="B184:B193"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A194:M195"/>
+    <mergeCell ref="E184:E193"/>
+    <mergeCell ref="F184:F193"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="A197:A203"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="A184:A193"/>
+    <mergeCell ref="A122:A158"/>
+    <mergeCell ref="B122:B158"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="C135:C148"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="A104:A120"/>
+    <mergeCell ref="B104:B114"/>
+    <mergeCell ref="C104:C114"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="A59:A82"/>
+    <mergeCell ref="A84:A103"/>
+    <mergeCell ref="B84:B96"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="B64:B76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="E84:E120"/>
+    <mergeCell ref="E17:E82"/>
+    <mergeCell ref="E122:E158"/>
+    <mergeCell ref="F122:F158"/>
+    <mergeCell ref="F59:F82"/>
+    <mergeCell ref="F84:F91"/>
+    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="F105:F120"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="L1:M1"/>
@@ -58680,86 +58730,36 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E122:E158"/>
-    <mergeCell ref="F122:F158"/>
-    <mergeCell ref="F59:F82"/>
-    <mergeCell ref="F84:F91"/>
-    <mergeCell ref="F92:F96"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="F105:F120"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A59:A82"/>
-    <mergeCell ref="A84:A103"/>
-    <mergeCell ref="B84:B96"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="B64:B76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="E84:E120"/>
-    <mergeCell ref="E17:E82"/>
-    <mergeCell ref="A122:A158"/>
-    <mergeCell ref="B122:B158"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="C135:C148"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="A104:A120"/>
-    <mergeCell ref="B104:B114"/>
-    <mergeCell ref="C104:C114"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="E197:E203"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="F197:F203"/>
-    <mergeCell ref="B184:B193"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A194:M195"/>
-    <mergeCell ref="E184:E193"/>
-    <mergeCell ref="F184:F193"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="A197:A203"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="C197:C200"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="A184:A193"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="A196:G196"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="L196:M196"/>
-    <mergeCell ref="E180:E183"/>
-    <mergeCell ref="F180:F183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A160:A173"/>
-    <mergeCell ref="B160:B173"/>
-    <mergeCell ref="C160:C173"/>
-    <mergeCell ref="E160:E173"/>
-    <mergeCell ref="F160:F173"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="A17:A58"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F17:F58"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B27:B53"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58785,37 +58785,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="114" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="118" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
+      <c r="A2" s="119"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -58825,12 +58825,12 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
